--- a/data_output/Excess Mortality/Countries/2020/2020_AGE_AGGREGATED_TOTAL_EU_['Female', 'Male', 'Total']_Total.xlsx
+++ b/data_output/Excess Mortality/Countries/2020/2020_AGE_AGGREGATED_TOTAL_EU_['Female', 'Male', 'Total']_Total.xlsx
@@ -286,7 +286,7 @@
     <t>4003.6 (±425.3)</t>
   </si>
   <si>
-    <t>9990.2 (±615.7)</t>
+    <t>9992.2 (±615.7)</t>
   </si>
   <si>
     <t>7233.4 (±760.4)</t>
@@ -298,7 +298,7 @@
     <t>241.0 (±66.7)</t>
   </si>
   <si>
-    <t>8729.6 (±750.6)</t>
+    <t>8728.6 (±750.6)</t>
   </si>
   <si>
     <t>466.8 (±181.6)</t>
@@ -361,7 +361,7 @@
     <t>3229.8 (±811.8)</t>
   </si>
   <si>
-    <t>3008.0 (±308.0)</t>
+    <t>3012.0 (±308.0)</t>
   </si>
   <si>
     <t>2100.6 (±136.4)</t>
@@ -454,7 +454,7 @@
     <t>7.9% (±2.1%)</t>
   </si>
   <si>
-    <t>14.1% (±1.6%)</t>
+    <t>14.2% (±1.7%)</t>
   </si>
   <si>
     <t>25.4% (±2.1%)</t>
@@ -472,7 +472,7 @@
     <t>88.5(±9.4)</t>
   </si>
   <si>
-    <t>171.0(±10.6)</t>
+    <t>171.1(±10.5)</t>
   </si>
   <si>
     <t>201.9(±21.3)</t>
@@ -547,7 +547,7 @@
     <t>90.9(±22.9)</t>
   </si>
   <si>
-    <t>107.7(±11.0)</t>
+    <t>107.9(±11.0)</t>
   </si>
   <si>
     <t>201.1(±13.0)</t>
@@ -661,7 +661,7 @@
     <t>5549.6 (±548.4)</t>
   </si>
   <si>
-    <t>9322.0 (±335.8)</t>
+    <t>9325.0 (±335.8)</t>
   </si>
   <si>
     <t>10137.0 (±776.0)</t>
@@ -673,7 +673,7 @@
     <t>326.0 (±85.0)</t>
   </si>
   <si>
-    <t>10615.2 (±643.0)</t>
+    <t>10616.2 (±643.0)</t>
   </si>
   <si>
     <t>1192.2 (±363.3)</t>
@@ -736,7 +736,7 @@
     <t>6714.6 (±797.9)</t>
   </si>
   <si>
-    <t>3419.0 (±257.9)</t>
+    <t>3422.0 (±257.9)</t>
   </si>
   <si>
     <t>1842.6 (±120.7)</t>
@@ -859,7 +859,7 @@
     <t>75.0(±19.6)</t>
   </si>
   <si>
-    <t>201.4(±12.1)</t>
+    <t>201.4(±12.2)</t>
   </si>
   <si>
     <t>41.2(±12.5)</t>
@@ -922,7 +922,7 @@
     <t>199.0(±23.6)</t>
   </si>
   <si>
-    <t>128.3(±9.7)</t>
+    <t>128.4(±9.7)</t>
   </si>
   <si>
     <t>175.3(±11.5)</t>
@@ -1036,7 +1036,7 @@
     <t>9553.2 (±904.4)</t>
   </si>
   <si>
-    <t>19312.2 (±924.0)</t>
+    <t>19317.2 (±924.0)</t>
   </si>
   <si>
     <t>17370.4 (±1516.8)</t>
@@ -1111,7 +1111,7 @@
     <t>9944.4 (±1602.9)</t>
   </si>
   <si>
-    <t>6427.0 (±544.6)</t>
+    <t>6434.0 (±544.6)</t>
   </si>
   <si>
     <t>3943.2 (±248.8)</t>
@@ -1222,7 +1222,7 @@
     <t>107.3(±10.2)</t>
   </si>
   <si>
-    <t>167.6(±8.0)</t>
+    <t>167.6(±8.1)</t>
   </si>
   <si>
     <t>249.9(±21.8)</t>
@@ -1297,7 +1297,7 @@
     <t>143.6(±23.1)</t>
   </si>
   <si>
-    <t>117.8(±9.9)</t>
+    <t>117.9(±10.0)</t>
   </si>
   <si>
     <t>188.1(±11.9)</t>
@@ -1862,7 +1862,7 @@
         <v>44242</v>
       </c>
       <c r="H3">
-        <v>55277</v>
+        <v>55279</v>
       </c>
       <c r="I3">
         <v>45286.8</v>
@@ -1883,7 +1883,7 @@
         <v>45902.49999999999</v>
       </c>
       <c r="O3">
-        <v>9990.200000000001</v>
+        <v>9992.200000000001</v>
       </c>
       <c r="P3">
         <v>615.7</v>
@@ -1907,10 +1907,10 @@
         <v>5841215</v>
       </c>
       <c r="W3">
-        <v>171</v>
+        <v>171.1</v>
       </c>
       <c r="X3">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="Y3" t="s">
         <v>151</v>
@@ -2170,7 +2170,7 @@
         <v>44206</v>
       </c>
       <c r="H7">
-        <v>53453</v>
+        <v>53452</v>
       </c>
       <c r="I7">
         <v>44723.39999999999</v>
@@ -2191,7 +2191,7 @@
         <v>45473.99999999999</v>
       </c>
       <c r="O7">
-        <v>8729.6</v>
+        <v>8728.6</v>
       </c>
       <c r="P7">
         <v>750.6</v>
@@ -3787,7 +3787,7 @@
         <v>20431</v>
       </c>
       <c r="H28">
-        <v>24286</v>
+        <v>24290</v>
       </c>
       <c r="I28">
         <v>21278</v>
@@ -3808,16 +3808,16 @@
         <v>21586</v>
       </c>
       <c r="O28">
-        <v>3008</v>
+        <v>3012</v>
       </c>
       <c r="P28">
         <v>308</v>
       </c>
       <c r="Q28">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="R28">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="S28" t="s">
         <v>83</v>
@@ -3832,7 +3832,7 @@
         <v>2792523</v>
       </c>
       <c r="W28">
-        <v>107.7</v>
+        <v>107.9</v>
       </c>
       <c r="X28">
         <v>11</v>
@@ -4339,7 +4339,7 @@
         <v>42612</v>
       </c>
       <c r="H3">
-        <v>53111</v>
+        <v>53114</v>
       </c>
       <c r="I3">
         <v>43789</v>
@@ -4360,7 +4360,7 @@
         <v>44124.8</v>
       </c>
       <c r="O3">
-        <v>9322</v>
+        <v>9325</v>
       </c>
       <c r="P3">
         <v>335.8</v>
@@ -4647,7 +4647,7 @@
         <v>46287</v>
       </c>
       <c r="H7">
-        <v>57008</v>
+        <v>57009</v>
       </c>
       <c r="I7">
         <v>46392.8</v>
@@ -4668,7 +4668,7 @@
         <v>47035.8</v>
       </c>
       <c r="O7">
-        <v>10615.2</v>
+        <v>10616.2</v>
       </c>
       <c r="P7">
         <v>643</v>
@@ -4695,7 +4695,7 @@
         <v>201.4</v>
       </c>
       <c r="X7">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="Y7" t="s">
         <v>280</v>
@@ -6264,7 +6264,7 @@
         <v>21897</v>
       </c>
       <c r="H28">
-        <v>25864</v>
+        <v>25867</v>
       </c>
       <c r="I28">
         <v>22445</v>
@@ -6285,7 +6285,7 @@
         <v>22702.90000000001</v>
       </c>
       <c r="O28">
-        <v>3419</v>
+        <v>3422</v>
       </c>
       <c r="P28">
         <v>257.9</v>
@@ -6309,7 +6309,7 @@
         <v>2665350</v>
       </c>
       <c r="W28">
-        <v>128.3</v>
+        <v>128.4</v>
       </c>
       <c r="X28">
         <v>9.699999999999999</v>
@@ -6816,7 +6816,7 @@
         <v>86854</v>
       </c>
       <c r="H3">
-        <v>108388</v>
+        <v>108393</v>
       </c>
       <c r="I3">
         <v>89075.80000000003</v>
@@ -6837,7 +6837,7 @@
         <v>89999.80000000003</v>
       </c>
       <c r="O3">
-        <v>19312.2</v>
+        <v>19317.2</v>
       </c>
       <c r="P3">
         <v>924</v>
@@ -6864,7 +6864,7 @@
         <v>167.6</v>
       </c>
       <c r="X3">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="Y3" t="s">
         <v>401</v>
@@ -8741,7 +8741,7 @@
         <v>42328</v>
       </c>
       <c r="H28">
-        <v>50150</v>
+        <v>50157</v>
       </c>
       <c r="I28">
         <v>43723.00000000001</v>
@@ -8762,7 +8762,7 @@
         <v>44267.60000000001</v>
       </c>
       <c r="O28">
-        <v>6427</v>
+        <v>6434</v>
       </c>
       <c r="P28">
         <v>544.6</v>
@@ -8786,10 +8786,10 @@
         <v>5457873</v>
       </c>
       <c r="W28">
-        <v>117.8</v>
+        <v>117.9</v>
       </c>
       <c r="X28">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="Y28" t="s">
         <v>426</v>

--- a/data_output/Excess Mortality/Countries/2020/2020_AGE_AGGREGATED_TOTAL_EU_['Female', 'Male', 'Total']_Total.xlsx
+++ b/data_output/Excess Mortality/Countries/2020/2020_AGE_AGGREGATED_TOTAL_EU_['Female', 'Male', 'Total']_Total.xlsx
@@ -250,10 +250,10 @@
     <t>2529.2 (±50.6)</t>
   </si>
   <si>
-    <t>62985.2 (±500.7)</t>
-  </si>
-  <si>
-    <t>17159.2 (±135.1)</t>
+    <t>62957.0 (±499.8)</t>
+  </si>
+  <si>
+    <t>17159.4 (±135.0)</t>
   </si>
   <si>
     <t>158479.4 (±3267.6)</t>
@@ -286,10 +286,10 @@
     <t>4003.6 (±425.3)</t>
   </si>
   <si>
-    <t>9992.2 (±615.7)</t>
-  </si>
-  <si>
-    <t>7233.4 (±760.4)</t>
+    <t>9798.2 (±615.7)</t>
+  </si>
+  <si>
+    <t>7237.4 (±760.4)</t>
   </si>
   <si>
     <t>2663.6 (±437.6)</t>
@@ -298,19 +298,19 @@
     <t>241.0 (±66.7)</t>
   </si>
   <si>
-    <t>8728.6 (±750.6)</t>
+    <t>8731.6 (±750.6)</t>
   </si>
   <si>
     <t>466.8 (±181.6)</t>
   </si>
   <si>
-    <t>444.2 (±67.3)</t>
+    <t>449.2 (±67.3)</t>
   </si>
   <si>
     <t>954.4 (±218.3)</t>
   </si>
   <si>
-    <t>35192.6 (±2178.2)</t>
+    <t>35224.6 (±2178.2)</t>
   </si>
   <si>
     <t>4590.2 (±632.2)</t>
@@ -322,10 +322,10 @@
     <t>-5.2 (±17.9)</t>
   </si>
   <si>
-    <t>52023.4 (±5002.1)</t>
-  </si>
-  <si>
-    <t>506.0 (±220.9)</t>
+    <t>52102.4 (±5002.1)</t>
+  </si>
+  <si>
+    <t>590.0 (±220.9)</t>
   </si>
   <si>
     <t>20.8 (±4.6)</t>
@@ -337,16 +337,16 @@
     <t>241.2 (±48.7)</t>
   </si>
   <si>
-    <t>235.6 (±15.6)</t>
-  </si>
-  <si>
-    <t>326.8 (±50.6)</t>
-  </si>
-  <si>
-    <t>8202.8 (±500.7)</t>
-  </si>
-  <si>
-    <t>-205.2 (±135.1)</t>
+    <t>240.6 (±15.6)</t>
+  </si>
+  <si>
+    <t>284.8 (±50.6)</t>
+  </si>
+  <si>
+    <t>8245.0 (±499.8)</t>
+  </si>
+  <si>
+    <t>-203.4 (±135.0)</t>
   </si>
   <si>
     <t>36473.6 (±3267.6)</t>
@@ -355,19 +355,19 @@
     <t>7712.0 (±750.8)</t>
   </si>
   <si>
-    <t>16084.6 (±1602.3)</t>
+    <t>16131.6 (±1602.3)</t>
   </si>
   <si>
     <t>3229.8 (±811.8)</t>
   </si>
   <si>
-    <t>3012.0 (±308.0)</t>
-  </si>
-  <si>
-    <t>2100.6 (±136.4)</t>
-  </si>
-  <si>
-    <t>40975.0 (±795.9)</t>
+    <t>3014.0 (±308.0)</t>
+  </si>
+  <si>
+    <t>2115.6 (±136.4)</t>
+  </si>
+  <si>
+    <t>39229.0 (±795.9)</t>
   </si>
   <si>
     <t>3035.8 (±631.8)</t>
@@ -379,7 +379,7 @@
     <t>11.7% (±1.4%)</t>
   </si>
   <si>
-    <t>22.1% (±1.7%)</t>
+    <t>21.6% (±1.6%)</t>
   </si>
   <si>
     <t>17.0% (±2.1%)</t>
@@ -391,13 +391,13 @@
     <t>10.8% (±3.2%)</t>
   </si>
   <si>
-    <t>19.5% (±2.0%)</t>
+    <t>19.5% (±1.9%)</t>
   </si>
   <si>
     <t>2.1% (±0.8%)</t>
   </si>
   <si>
-    <t>6.7% (±1.1%)</t>
+    <t>6.8% (±1.1%)</t>
   </si>
   <si>
     <t>4.3% (±1.0%)</t>
@@ -415,10 +415,10 @@
     <t>-0.6% (±1.9%)</t>
   </si>
   <si>
-    <t>19.1% (±2.1%)</t>
-  </si>
-  <si>
-    <t>4.1% (±1.8%)</t>
+    <t>19.2% (±2.2%)</t>
+  </si>
+  <si>
+    <t>4.8% (±1.9%)</t>
   </si>
   <si>
     <t>19.6% (±5.0%)</t>
@@ -430,13 +430,13 @@
     <t>14.4% (±3.2%)</t>
   </si>
   <si>
-    <t>17.0% (±1.3%)</t>
-  </si>
-  <si>
-    <t>12.9% (±2.2%)</t>
-  </si>
-  <si>
-    <t>13.0% (±0.9%)</t>
+    <t>17.3% (±1.3%)</t>
+  </si>
+  <si>
+    <t>11.3% (±2.2%)</t>
+  </si>
+  <si>
+    <t>13.1% (±0.9%)</t>
   </si>
   <si>
     <t>-1.2% (±0.8%)</t>
@@ -448,7 +448,7 @@
     <t>17.6% (±2.0%)</t>
   </si>
   <si>
-    <t>15.8% (±1.8%)</t>
+    <t>15.9% (±1.8%)</t>
   </si>
   <si>
     <t>7.9% (±2.1%)</t>
@@ -457,10 +457,10 @@
     <t>14.2% (±1.7%)</t>
   </si>
   <si>
-    <t>25.4% (±2.1%)</t>
-  </si>
-  <si>
-    <t>24.7% (±0.6%)</t>
+    <t>25.5% (±2.0%)</t>
+  </si>
+  <si>
+    <t>23.7% (±0.6%)</t>
   </si>
   <si>
     <t>8.1% (±1.8%)</t>
@@ -472,10 +472,10 @@
     <t>88.5(±9.4)</t>
   </si>
   <si>
-    <t>171.1(±10.5)</t>
-  </si>
-  <si>
-    <t>201.9(±21.3)</t>
+    <t>167.7(±10.6)</t>
+  </si>
+  <si>
+    <t>202.1(±21.2)</t>
   </si>
   <si>
     <t>127.7(±20.9)</t>
@@ -484,19 +484,19 @@
     <t>53.1(±14.7)</t>
   </si>
   <si>
-    <t>161.0(±13.8)</t>
+    <t>161.0(±13.9)</t>
   </si>
   <si>
     <t>16.0(±6.2)</t>
   </si>
   <si>
-    <t>63.5(±9.6)</t>
+    <t>64.2(±9.6)</t>
   </si>
   <si>
     <t>34.1(±7.8)</t>
   </si>
   <si>
-    <t>101.2(±6.2)</t>
+    <t>101.3(±6.2)</t>
   </si>
   <si>
     <t>83.4(±11.5)</t>
@@ -508,10 +508,10 @@
     <t>-2.9(±10.1)</t>
   </si>
   <si>
-    <t>170.1(±16.3)</t>
-  </si>
-  <si>
-    <t>49.3(±21.5)</t>
+    <t>170.3(±16.4)</t>
+  </si>
+  <si>
+    <t>57.5(±21.5)</t>
   </si>
   <si>
     <t>106.5(±23.5)</t>
@@ -523,16 +523,16 @@
     <t>77.5(±15.7)</t>
   </si>
   <si>
-    <t>94.7(±6.3)</t>
-  </si>
-  <si>
-    <t>104.0(±16.1)</t>
-  </si>
-  <si>
-    <t>93.6(±5.8)</t>
-  </si>
-  <si>
-    <t>-7.7(±5.1)</t>
+    <t>96.7(±6.3)</t>
+  </si>
+  <si>
+    <t>90.6(±16.1)</t>
+  </si>
+  <si>
+    <t>94.1(±5.7)</t>
+  </si>
+  <si>
+    <t>-7.6(±5.0)</t>
   </si>
   <si>
     <t>186.2(±16.7)</t>
@@ -541,19 +541,19 @@
     <t>141.9(±13.8)</t>
   </si>
   <si>
-    <t>163.0(±16.2)</t>
+    <t>163.5(±16.2)</t>
   </si>
   <si>
     <t>90.9(±22.9)</t>
   </si>
   <si>
-    <t>107.9(±11.0)</t>
-  </si>
-  <si>
-    <t>201.1(±13.0)</t>
-  </si>
-  <si>
-    <t>169.8(±3.3)</t>
+    <t>107.9(±11.1)</t>
+  </si>
+  <si>
+    <t>202.5(±13.0)</t>
+  </si>
+  <si>
+    <t>162.6(±3.2)</t>
   </si>
   <si>
     <t>59.2(±12.3)</t>
@@ -625,10 +625,10 @@
     <t>2765.6 (±52.8)</t>
   </si>
   <si>
-    <t>59954.6 (±852.5)</t>
-  </si>
-  <si>
-    <t>16271.2 (±168.6)</t>
+    <t>59899.8 (±856.3)</t>
+  </si>
+  <si>
+    <t>16271.6 (±168.8)</t>
   </si>
   <si>
     <t>171510.0 (±2321.3)</t>
@@ -661,10 +661,10 @@
     <t>5549.6 (±548.4)</t>
   </si>
   <si>
-    <t>9325.0 (±335.8)</t>
-  </si>
-  <si>
-    <t>10137.0 (±776.0)</t>
+    <t>9040.0 (±335.8)</t>
+  </si>
+  <si>
+    <t>10138.0 (±776.0)</t>
   </si>
   <si>
     <t>2787.4 (±427.5)</t>
@@ -673,19 +673,19 @@
     <t>326.0 (±85.0)</t>
   </si>
   <si>
-    <t>10616.2 (±643.0)</t>
+    <t>10624.2 (±643.0)</t>
   </si>
   <si>
     <t>1192.2 (±363.3)</t>
   </si>
   <si>
-    <t>332.0 (±68.8)</t>
+    <t>340.0 (±68.8)</t>
   </si>
   <si>
     <t>1268.8 (±154.1)</t>
   </si>
   <si>
-    <t>36457.6 (±1486.8)</t>
+    <t>36512.6 (±1486.8)</t>
   </si>
   <si>
     <t>3920.0 (±450.5)</t>
@@ -697,10 +697,10 @@
     <t>21.2 (±25.8)</t>
   </si>
   <si>
-    <t>57314.6 (±3234.5)</t>
-  </si>
-  <si>
-    <t>162.4 (±224.3)</t>
+    <t>57425.6 (±3234.5)</t>
+  </si>
+  <si>
+    <t>310.4 (±224.3)</t>
   </si>
   <si>
     <t>26.8 (±6.7)</t>
@@ -712,16 +712,16 @@
     <t>287.0 (±40.4)</t>
   </si>
   <si>
-    <t>270.4 (±54.2)</t>
-  </si>
-  <si>
-    <t>579.4 (±52.8)</t>
-  </si>
-  <si>
-    <t>11747.4 (±852.5)</t>
-  </si>
-  <si>
-    <t>315.8 (±168.6)</t>
+    <t>271.4 (±54.2)</t>
+  </si>
+  <si>
+    <t>527.4 (±52.8)</t>
+  </si>
+  <si>
+    <t>11857.2 (±856.3)</t>
+  </si>
+  <si>
+    <t>308.4 (±168.8)</t>
   </si>
   <si>
     <t>43890.0 (±2321.3)</t>
@@ -730,19 +730,19 @@
     <t>6540.0 (±725.2)</t>
   </si>
   <si>
-    <t>23015.8 (±1524.7)</t>
+    <t>23075.8 (±1524.7)</t>
   </si>
   <si>
     <t>6714.6 (±797.9)</t>
   </si>
   <si>
-    <t>3422.0 (±257.9)</t>
-  </si>
-  <si>
-    <t>1842.6 (±120.7)</t>
-  </si>
-  <si>
-    <t>41058.0 (±898.2)</t>
+    <t>3424.0 (±257.9)</t>
+  </si>
+  <si>
+    <t>1861.6 (±120.7)</t>
+  </si>
+  <si>
+    <t>39018.0 (±898.2)</t>
   </si>
   <si>
     <t>4648.4 (±584.3)</t>
@@ -754,10 +754,10 @@
     <t>17.4% (±2.0%)</t>
   </si>
   <si>
-    <t>21.3% (±0.9%)</t>
-  </si>
-  <si>
-    <t>21.9% (±2.0%)</t>
+    <t>20.6% (±0.9%)</t>
+  </si>
+  <si>
+    <t>22.0% (±2.1%)</t>
   </si>
   <si>
     <t>13.2% (±2.2%)</t>
@@ -772,7 +772,7 @@
     <t>5.4% (±1.7%)</t>
   </si>
   <si>
-    <t>5.5% (±1.2%)</t>
+    <t>5.7% (±1.2%)</t>
   </si>
   <si>
     <t>5.7% (±0.7%)</t>
@@ -790,10 +790,10 @@
     <t>2.2% (±2.7%)</t>
   </si>
   <si>
-    <t>22.8% (±1.6%)</t>
-  </si>
-  <si>
-    <t>1.5% (±2.0%)</t>
+    <t>22.8% (±1.5%)</t>
+  </si>
+  <si>
+    <t>2.8% (±2.0%)</t>
   </si>
   <si>
     <t>24.1% (±7.1%)</t>
@@ -805,16 +805,16 @@
     <t>16.5% (±2.6%)</t>
   </si>
   <si>
-    <t>18.8% (±4.3%)</t>
-  </si>
-  <si>
-    <t>21.0% (±2.3%)</t>
-  </si>
-  <si>
-    <t>19.6% (±1.7%)</t>
-  </si>
-  <si>
-    <t>1.9% (±1.0%)</t>
+    <t>18.9% (±4.3%)</t>
+  </si>
+  <si>
+    <t>19.1% (±2.3%)</t>
+  </si>
+  <si>
+    <t>19.8% (±1.7%)</t>
+  </si>
+  <si>
+    <t>1.9% (±1.1%)</t>
   </si>
   <si>
     <t>25.6% (±1.7%)</t>
@@ -823,19 +823,19 @@
     <t>14.7% (±1.9%)</t>
   </si>
   <si>
-    <t>20.5% (±1.6%)</t>
+    <t>20.6% (±1.6%)</t>
   </si>
   <si>
     <t>16.0% (±2.1%)</t>
   </si>
   <si>
-    <t>15.2% (±1.3%)</t>
-  </si>
-  <si>
-    <t>22.7% (±1.8%)</t>
-  </si>
-  <si>
-    <t>24.0% (±0.7%)</t>
+    <t>15.3% (±1.4%)</t>
+  </si>
+  <si>
+    <t>23.0% (±1.8%)</t>
+  </si>
+  <si>
+    <t>22.8% (±0.6%)</t>
   </si>
   <si>
     <t>13.0% (±1.8%)</t>
@@ -847,10 +847,10 @@
     <t>126.7(±12.6)</t>
   </si>
   <si>
-    <t>164.1(±5.9)</t>
-  </si>
-  <si>
-    <t>300.8(±23.1)</t>
+    <t>159.1(±5.9)</t>
+  </si>
+  <si>
+    <t>300.9(±23.0)</t>
   </si>
   <si>
     <t>141.4(±21.7)</t>
@@ -859,19 +859,19 @@
     <t>75.0(±19.6)</t>
   </si>
   <si>
-    <t>201.4(±12.2)</t>
+    <t>201.5(±12.2)</t>
   </si>
   <si>
     <t>41.2(±12.5)</t>
   </si>
   <si>
-    <t>52.8(±10.9)</t>
+    <t>54.0(±11.0)</t>
   </si>
   <si>
     <t>46.5(±5.7)</t>
   </si>
   <si>
-    <t>112.1(±4.5)</t>
+    <t>112.2(±4.6)</t>
   </si>
   <si>
     <t>75.2(±8.6)</t>
@@ -883,10 +883,10 @@
     <t>11.3(±13.8)</t>
   </si>
   <si>
-    <t>197.3(±11.1)</t>
-  </si>
-  <si>
-    <t>18.4(±25.5)</t>
+    <t>197.7(±11.1)</t>
+  </si>
+  <si>
+    <t>35.2(±25.5)</t>
   </si>
   <si>
     <t>139.5(±34.8)</t>
@@ -898,16 +898,16 @@
     <t>91.1(±12.8)</t>
   </si>
   <si>
-    <t>101.7(±20.4)</t>
-  </si>
-  <si>
-    <t>188.4(±17.2)</t>
-  </si>
-  <si>
-    <t>135.8(±9.9)</t>
-  </si>
-  <si>
-    <t>11.7(±6.2)</t>
+    <t>102.1(±20.4)</t>
+  </si>
+  <si>
+    <t>171.5(±17.1)</t>
+  </si>
+  <si>
+    <t>137.1(±9.9)</t>
+  </si>
+  <si>
+    <t>11.4(±6.2)</t>
   </si>
   <si>
     <t>238.9(±12.6)</t>
@@ -916,19 +916,19 @@
     <t>134.6(±14.9)</t>
   </si>
   <si>
-    <t>243.3(±16.1)</t>
+    <t>243.9(±16.1)</t>
   </si>
   <si>
     <t>199.0(±23.6)</t>
   </si>
   <si>
-    <t>128.4(±9.7)</t>
-  </si>
-  <si>
-    <t>175.3(±11.5)</t>
-  </si>
-  <si>
-    <t>177.0(±3.9)</t>
+    <t>128.5(±9.6)</t>
+  </si>
+  <si>
+    <t>177.1(±11.5)</t>
+  </si>
+  <si>
+    <t>168.2(±3.9)</t>
   </si>
   <si>
     <t>89.5(±11.2)</t>
@@ -1000,10 +1000,10 @@
     <t>5294.8 (±62.2)</t>
   </si>
   <si>
-    <t>122939.8 (±1316.7)</t>
-  </si>
-  <si>
-    <t>33430.4 (±246.8)</t>
+    <t>122856.8 (±1323.0)</t>
+  </si>
+  <si>
+    <t>33431.0 (±246.9)</t>
   </si>
   <si>
     <t>329989.4 (±5560.1)</t>
@@ -1036,10 +1036,10 @@
     <t>9553.2 (±904.4)</t>
   </si>
   <si>
-    <t>19317.2 (±924.0)</t>
-  </si>
-  <si>
-    <t>17370.4 (±1516.8)</t>
+    <t>18838.2 (±924.0)</t>
+  </si>
+  <si>
+    <t>17375.4 (±1516.8)</t>
   </si>
   <si>
     <t>5451.0 (±839.4)</t>
@@ -1048,19 +1048,19 @@
     <t>567.0 (±150.4)</t>
   </si>
   <si>
-    <t>19344.8 (±1350.5)</t>
+    <t>19355.8 (±1350.5)</t>
   </si>
   <si>
     <t>1659.0 (±498.0)</t>
   </si>
   <si>
-    <t>776.2 (±116.7)</t>
+    <t>789.2 (±116.7)</t>
   </si>
   <si>
     <t>2223.2 (±335.2)</t>
   </si>
   <si>
-    <t>71650.2 (±3480.3)</t>
+    <t>71737.2 (±3480.3)</t>
   </si>
   <si>
     <t>8510.2 (±1041.4)</t>
@@ -1072,10 +1072,10 @@
     <t>16.0 (±40.9)</t>
   </si>
   <si>
-    <t>109338.0 (±8215.0)</t>
-  </si>
-  <si>
-    <t>668.4 (±424.7)</t>
+    <t>109528.0 (±8215.0)</t>
+  </si>
+  <si>
+    <t>900.4 (±424.7)</t>
   </si>
   <si>
     <t>47.6 (±6.7)</t>
@@ -1087,16 +1087,16 @@
     <t>528.2 (±84.1)</t>
   </si>
   <si>
-    <t>506.0 (±65.4)</t>
-  </si>
-  <si>
-    <t>906.2 (±62.2)</t>
-  </si>
-  <si>
-    <t>19950.2 (±1316.7)</t>
-  </si>
-  <si>
-    <t>110.6 (±246.8)</t>
+    <t>512.0 (±65.4)</t>
+  </si>
+  <si>
+    <t>812.2 (±62.2)</t>
+  </si>
+  <si>
+    <t>20102.2 (±1323.0)</t>
+  </si>
+  <si>
+    <t>105.0 (±246.9)</t>
   </si>
   <si>
     <t>80363.6 (±5560.1)</t>
@@ -1105,19 +1105,19 @@
     <t>14252.0 (±1468.0)</t>
   </si>
   <si>
-    <t>39100.4 (±3118.8)</t>
+    <t>39207.4 (±3118.8)</t>
   </si>
   <si>
     <t>9944.4 (±1602.9)</t>
   </si>
   <si>
-    <t>6434.0 (±544.6)</t>
-  </si>
-  <si>
-    <t>3943.2 (±248.8)</t>
-  </si>
-  <si>
-    <t>82033.0 (±1656.4)</t>
+    <t>6438.0 (±544.6)</t>
+  </si>
+  <si>
+    <t>3977.2 (±248.8)</t>
+  </si>
+  <si>
+    <t>78247.0 (±1656.4)</t>
   </si>
   <si>
     <t>7684.2 (±1202.2)</t>
@@ -1129,7 +1129,7 @@
     <t>14.4% (±1.5%)</t>
   </si>
   <si>
-    <t>21.7% (±1.3%)</t>
+    <t>21.1% (±1.2%)</t>
   </si>
   <si>
     <t>19.6% (±2.0%)</t>
@@ -1147,13 +1147,13 @@
     <t>3.8% (±1.2%)</t>
   </si>
   <si>
-    <t>6.1% (±0.9%)</t>
+    <t>6.2% (±0.9%)</t>
   </si>
   <si>
     <t>5.0% (±0.8%)</t>
   </si>
   <si>
-    <t>14.5% (±0.8%)</t>
+    <t>14.6% (±0.8%)</t>
   </si>
   <si>
     <t>8.6% (±1.2%)</t>
@@ -1168,7 +1168,7 @@
     <t>20.9% (±1.9%)</t>
   </si>
   <si>
-    <t>2.9% (±1.9%)</t>
+    <t>3.8% (±1.8%)</t>
   </si>
   <si>
     <t>21.9% (±3.6%)</t>
@@ -1180,13 +1180,13 @@
     <t>15.5% (±2.8%)</t>
   </si>
   <si>
-    <t>17.9% (±2.7%)</t>
-  </si>
-  <si>
-    <t>17.1% (±1.3%)</t>
-  </si>
-  <si>
-    <t>16.2% (±1.2%)</t>
+    <t>18.1% (±2.7%)</t>
+  </si>
+  <si>
+    <t>15.3% (±1.3%)</t>
+  </si>
+  <si>
+    <t>16.4% (±1.3%)</t>
   </si>
   <si>
     <t>0.3% (±0.7%)</t>
@@ -1207,10 +1207,10 @@
     <t>14.7% (±1.4%)</t>
   </si>
   <si>
-    <t>24.1% (±1.9%)</t>
-  </si>
-  <si>
-    <t>24.3% (±0.6%)</t>
+    <t>24.3% (±1.9%)</t>
+  </si>
+  <si>
+    <t>23.2% (±0.6%)</t>
   </si>
   <si>
     <t>10.5% (±1.8%)</t>
@@ -1222,10 +1222,10 @@
     <t>107.3(±10.2)</t>
   </si>
   <si>
-    <t>167.6(±8.1)</t>
-  </si>
-  <si>
-    <t>249.9(±21.8)</t>
+    <t>163.5(±8.0)</t>
+  </si>
+  <si>
+    <t>250.0(±21.8)</t>
   </si>
   <si>
     <t>134.3(±20.7)</t>
@@ -1234,19 +1234,19 @@
     <t>63.9(±16.9)</t>
   </si>
   <si>
-    <t>180.9(±12.6)</t>
+    <t>181.0(±12.6)</t>
   </si>
   <si>
     <t>28.5(±8.5)</t>
   </si>
   <si>
-    <t>58.4(±8.8)</t>
+    <t>59.4(±8.8)</t>
   </si>
   <si>
     <t>40.2(±6.1)</t>
   </si>
   <si>
-    <t>106.4(±5.2)</t>
+    <t>106.6(±5.1)</t>
   </si>
   <si>
     <t>79.4(±9.7)</t>
@@ -1258,10 +1258,10 @@
     <t>4.4(±11.2)</t>
   </si>
   <si>
-    <t>183.3(±13.8)</t>
-  </si>
-  <si>
-    <t>35.0(±22.3)</t>
+    <t>183.6(±13.8)</t>
+  </si>
+  <si>
+    <t>47.2(±22.3)</t>
   </si>
   <si>
     <t>122.8(±17.3)</t>
@@ -1273,16 +1273,16 @@
     <t>84.4(±13.4)</t>
   </si>
   <si>
-    <t>98.3(±12.7)</t>
-  </si>
-  <si>
-    <t>145.7(±10.0)</t>
-  </si>
-  <si>
-    <t>114.6(±7.6)</t>
-  </si>
-  <si>
-    <t>2.1(±4.6)</t>
+    <t>99.5(±12.7)</t>
+  </si>
+  <si>
+    <t>130.6(±10.0)</t>
+  </si>
+  <si>
+    <t>115.5(±7.6)</t>
+  </si>
+  <si>
+    <t>2.0(±4.6)</t>
   </si>
   <si>
     <t>211.7(±14.7)</t>
@@ -1291,19 +1291,19 @@
     <t>138.4(±14.3)</t>
   </si>
   <si>
-    <t>202.3(±16.1)</t>
+    <t>202.8(±16.2)</t>
   </si>
   <si>
     <t>143.6(±23.1)</t>
   </si>
   <si>
-    <t>117.9(±10.0)</t>
-  </si>
-  <si>
-    <t>188.1(±11.9)</t>
-  </si>
-  <si>
-    <t>173.3(±3.5)</t>
+    <t>118.0(±9.9)</t>
+  </si>
+  <si>
+    <t>189.8(±11.8)</t>
+  </si>
+  <si>
+    <t>165.3(±3.5)</t>
   </si>
   <si>
     <t>74.4(±11.6)</t>
@@ -1862,7 +1862,7 @@
         <v>44242</v>
       </c>
       <c r="H3">
-        <v>55279</v>
+        <v>55085</v>
       </c>
       <c r="I3">
         <v>45286.8</v>
@@ -1883,16 +1883,16 @@
         <v>45902.49999999999</v>
       </c>
       <c r="O3">
-        <v>9992.200000000001</v>
+        <v>9798.200000000001</v>
       </c>
       <c r="P3">
         <v>615.7</v>
       </c>
       <c r="Q3">
-        <v>22.1</v>
+        <v>21.6</v>
       </c>
       <c r="R3">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="S3" t="s">
         <v>58</v>
@@ -1907,10 +1907,10 @@
         <v>5841215</v>
       </c>
       <c r="W3">
-        <v>171.1</v>
+        <v>167.7</v>
       </c>
       <c r="X3">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="Y3" t="s">
         <v>151</v>
@@ -1939,7 +1939,7 @@
         <v>40969</v>
       </c>
       <c r="H4">
-        <v>49832</v>
+        <v>49836</v>
       </c>
       <c r="I4">
         <v>42598.6</v>
@@ -1960,7 +1960,7 @@
         <v>43359</v>
       </c>
       <c r="O4">
-        <v>7233.4</v>
+        <v>7237.4</v>
       </c>
       <c r="P4">
         <v>760.4</v>
@@ -1984,10 +1984,10 @@
         <v>3581836</v>
       </c>
       <c r="W4">
-        <v>201.9</v>
+        <v>202.1</v>
       </c>
       <c r="X4">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="Y4" t="s">
         <v>152</v>
@@ -2170,7 +2170,7 @@
         <v>44206</v>
       </c>
       <c r="H7">
-        <v>53452</v>
+        <v>53455</v>
       </c>
       <c r="I7">
         <v>44723.39999999999</v>
@@ -2191,7 +2191,7 @@
         <v>45473.99999999999</v>
       </c>
       <c r="O7">
-        <v>8728.6</v>
+        <v>8731.6</v>
       </c>
       <c r="P7">
         <v>750.6</v>
@@ -2200,7 +2200,7 @@
         <v>19.5</v>
       </c>
       <c r="R7">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S7" t="s">
         <v>62</v>
@@ -2218,7 +2218,7 @@
         <v>161</v>
       </c>
       <c r="X7">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="Y7" t="s">
         <v>155</v>
@@ -2324,7 +2324,7 @@
         <v>6532</v>
       </c>
       <c r="H9">
-        <v>7088</v>
+        <v>7093</v>
       </c>
       <c r="I9">
         <v>6643.799999999997</v>
@@ -2345,13 +2345,13 @@
         <v>6711.099999999998</v>
       </c>
       <c r="O9">
-        <v>444.2</v>
+        <v>449.2</v>
       </c>
       <c r="P9">
         <v>67.3</v>
       </c>
       <c r="Q9">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="R9">
         <v>1.1</v>
@@ -2369,7 +2369,7 @@
         <v>699699</v>
       </c>
       <c r="W9">
-        <v>63.5</v>
+        <v>64.2</v>
       </c>
       <c r="X9">
         <v>9.6</v>
@@ -2478,7 +2478,7 @@
         <v>244549</v>
       </c>
       <c r="H11">
-        <v>281264</v>
+        <v>281296</v>
       </c>
       <c r="I11">
         <v>246071.4</v>
@@ -2499,7 +2499,7 @@
         <v>248249.6</v>
       </c>
       <c r="O11">
-        <v>35192.6</v>
+        <v>35224.6</v>
       </c>
       <c r="P11">
         <v>2178.2</v>
@@ -2523,7 +2523,7 @@
         <v>34787547</v>
       </c>
       <c r="W11">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="X11">
         <v>6.2</v>
@@ -2786,7 +2786,7 @@
         <v>263479</v>
       </c>
       <c r="H15">
-        <v>323917</v>
+        <v>323996</v>
       </c>
       <c r="I15">
         <v>271893.6</v>
@@ -2807,16 +2807,16 @@
         <v>276895.7</v>
       </c>
       <c r="O15">
-        <v>52023.4</v>
+        <v>52102.4</v>
       </c>
       <c r="P15">
         <v>5002.1</v>
       </c>
       <c r="Q15">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="R15">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S15" t="s">
         <v>70</v>
@@ -2831,10 +2831,10 @@
         <v>30591392</v>
       </c>
       <c r="W15">
-        <v>170.1</v>
+        <v>170.3</v>
       </c>
       <c r="X15">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="Y15" t="s">
         <v>163</v>
@@ -2863,7 +2863,7 @@
         <v>11746</v>
       </c>
       <c r="H16">
-        <v>12864</v>
+        <v>12948</v>
       </c>
       <c r="I16">
         <v>12358</v>
@@ -2884,16 +2884,16 @@
         <v>12578.9</v>
       </c>
       <c r="O16">
-        <v>506</v>
+        <v>590</v>
       </c>
       <c r="P16">
         <v>220.9</v>
       </c>
       <c r="Q16">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="R16">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S16" t="s">
         <v>71</v>
@@ -2908,7 +2908,7 @@
         <v>1026719</v>
       </c>
       <c r="W16">
-        <v>49.3</v>
+        <v>57.5</v>
       </c>
       <c r="X16">
         <v>21.5</v>
@@ -3171,7 +3171,7 @@
         <v>1348</v>
       </c>
       <c r="H20">
-        <v>1625</v>
+        <v>1630</v>
       </c>
       <c r="I20">
         <v>1389.4</v>
@@ -3192,13 +3192,13 @@
         <v>1405</v>
       </c>
       <c r="O20">
-        <v>235.6</v>
+        <v>240.6</v>
       </c>
       <c r="P20">
         <v>15.6</v>
       </c>
       <c r="Q20">
-        <v>17</v>
+        <v>17.3</v>
       </c>
       <c r="R20">
         <v>1.3</v>
@@ -3216,7 +3216,7 @@
         <v>248802</v>
       </c>
       <c r="W20">
-        <v>94.7</v>
+        <v>96.7</v>
       </c>
       <c r="X20">
         <v>6.3</v>
@@ -3248,7 +3248,7 @@
         <v>2445</v>
       </c>
       <c r="H21">
-        <v>2856</v>
+        <v>2814</v>
       </c>
       <c r="I21">
         <v>2529.2</v>
@@ -3269,13 +3269,13 @@
         <v>2579.8</v>
       </c>
       <c r="O21">
-        <v>326.8</v>
+        <v>284.8</v>
       </c>
       <c r="P21">
         <v>50.6</v>
       </c>
       <c r="Q21">
-        <v>12.9</v>
+        <v>11.3</v>
       </c>
       <c r="R21">
         <v>2.2</v>
@@ -3293,7 +3293,7 @@
         <v>314318</v>
       </c>
       <c r="W21">
-        <v>104</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="X21">
         <v>16.1</v>
@@ -3310,49 +3310,49 @@
         <v>46</v>
       </c>
       <c r="C22">
-        <v>61667</v>
+        <v>61621</v>
       </c>
       <c r="D22">
-        <v>61902</v>
+        <v>61858</v>
       </c>
       <c r="E22">
-        <v>60837</v>
+        <v>60831</v>
       </c>
       <c r="F22">
-        <v>62048</v>
+        <v>62022</v>
       </c>
       <c r="G22">
-        <v>62584</v>
+        <v>62577</v>
       </c>
       <c r="H22">
-        <v>71188</v>
+        <v>71202</v>
       </c>
       <c r="I22">
-        <v>62985.2</v>
+        <v>62956.99999999999</v>
       </c>
       <c r="J22">
-        <v>571.2</v>
+        <v>570.2</v>
       </c>
       <c r="K22">
         <v>1.96</v>
       </c>
       <c r="L22">
-        <v>500.7</v>
+        <v>499.8</v>
       </c>
       <c r="M22">
-        <v>62484.5</v>
+        <v>62457.19999999999</v>
       </c>
       <c r="N22">
-        <v>63485.89999999999</v>
+        <v>63456.8</v>
       </c>
       <c r="O22">
-        <v>8202.799999999999</v>
+        <v>8245</v>
       </c>
       <c r="P22">
-        <v>500.7</v>
+        <v>499.8</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="R22">
         <v>0.9</v>
@@ -3370,10 +3370,10 @@
         <v>8759554</v>
       </c>
       <c r="W22">
-        <v>93.59999999999999</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="X22">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Y22" t="s">
         <v>170</v>
@@ -3399,34 +3399,34 @@
         <v>16646</v>
       </c>
       <c r="G23">
-        <v>16732</v>
+        <v>16733</v>
       </c>
       <c r="H23">
-        <v>16954</v>
+        <v>16956</v>
       </c>
       <c r="I23">
-        <v>17159.2</v>
+        <v>17159.4</v>
       </c>
       <c r="J23">
-        <v>154.1</v>
+        <v>154</v>
       </c>
       <c r="K23">
         <v>1.96</v>
       </c>
       <c r="L23">
-        <v>135.1</v>
+        <v>135</v>
       </c>
       <c r="M23">
-        <v>17024.1</v>
+        <v>17024.4</v>
       </c>
       <c r="N23">
-        <v>17294.3</v>
+        <v>17294.4</v>
       </c>
       <c r="O23">
-        <v>-205.2</v>
+        <v>-203.4</v>
       </c>
       <c r="P23">
-        <v>135.1</v>
+        <v>135</v>
       </c>
       <c r="Q23">
         <v>-1.2</v>
@@ -3447,10 +3447,10 @@
         <v>2661018</v>
       </c>
       <c r="W23">
-        <v>-7.7</v>
+        <v>-7.6</v>
       </c>
       <c r="X23">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y23" t="s">
         <v>171</v>
@@ -3633,7 +3633,7 @@
         <v>97695</v>
       </c>
       <c r="H26">
-        <v>117813</v>
+        <v>117860</v>
       </c>
       <c r="I26">
         <v>101728.4</v>
@@ -3654,13 +3654,13 @@
         <v>103330.7</v>
       </c>
       <c r="O26">
-        <v>16084.6</v>
+        <v>16131.6</v>
       </c>
       <c r="P26">
         <v>1602.3</v>
       </c>
       <c r="Q26">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="R26">
         <v>1.8</v>
@@ -3678,7 +3678,7 @@
         <v>9868177</v>
       </c>
       <c r="W26">
-        <v>163</v>
+        <v>163.5</v>
       </c>
       <c r="X26">
         <v>16.2</v>
@@ -3787,7 +3787,7 @@
         <v>20431</v>
       </c>
       <c r="H28">
-        <v>24290</v>
+        <v>24292</v>
       </c>
       <c r="I28">
         <v>21278</v>
@@ -3808,7 +3808,7 @@
         <v>21586</v>
       </c>
       <c r="O28">
-        <v>3012</v>
+        <v>3014</v>
       </c>
       <c r="P28">
         <v>308</v>
@@ -3835,7 +3835,7 @@
         <v>107.9</v>
       </c>
       <c r="X28">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="Y28" t="s">
         <v>176</v>
@@ -3864,7 +3864,7 @@
         <v>8226</v>
       </c>
       <c r="H29">
-        <v>10386</v>
+        <v>10401</v>
       </c>
       <c r="I29">
         <v>8285.400000000001</v>
@@ -3885,16 +3885,16 @@
         <v>8421.800000000001</v>
       </c>
       <c r="O29">
-        <v>2100.6</v>
+        <v>2115.6</v>
       </c>
       <c r="P29">
         <v>136.4</v>
       </c>
       <c r="Q29">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="R29">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S29" t="s">
         <v>84</v>
@@ -3909,7 +3909,7 @@
         <v>1044795</v>
       </c>
       <c r="W29">
-        <v>201.1</v>
+        <v>202.5</v>
       </c>
       <c r="X29">
         <v>13</v>
@@ -3941,7 +3941,7 @@
         <v>161219</v>
       </c>
       <c r="H30">
-        <v>206764</v>
+        <v>205018</v>
       </c>
       <c r="I30">
         <v>165789</v>
@@ -3962,13 +3962,13 @@
         <v>166584.9</v>
       </c>
       <c r="O30">
-        <v>40975</v>
+        <v>39229</v>
       </c>
       <c r="P30">
         <v>795.9</v>
       </c>
       <c r="Q30">
-        <v>24.7</v>
+        <v>23.7</v>
       </c>
       <c r="R30">
         <v>0.6</v>
@@ -3986,10 +3986,10 @@
         <v>24133301</v>
       </c>
       <c r="W30">
-        <v>169.8</v>
+        <v>162.6</v>
       </c>
       <c r="X30">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Y30" t="s">
         <v>178</v>
@@ -4339,7 +4339,7 @@
         <v>42612</v>
       </c>
       <c r="H3">
-        <v>53114</v>
+        <v>52829</v>
       </c>
       <c r="I3">
         <v>43789</v>
@@ -4360,13 +4360,13 @@
         <v>44124.8</v>
       </c>
       <c r="O3">
-        <v>9325</v>
+        <v>9040</v>
       </c>
       <c r="P3">
         <v>335.8</v>
       </c>
       <c r="Q3">
-        <v>21.3</v>
+        <v>20.6</v>
       </c>
       <c r="R3">
         <v>0.9</v>
@@ -4384,7 +4384,7 @@
         <v>5681225</v>
       </c>
       <c r="W3">
-        <v>164.1</v>
+        <v>159.1</v>
       </c>
       <c r="X3">
         <v>5.9</v>
@@ -4416,7 +4416,7 @@
         <v>44364</v>
       </c>
       <c r="H4">
-        <v>56322</v>
+        <v>56323</v>
       </c>
       <c r="I4">
         <v>46185</v>
@@ -4437,16 +4437,16 @@
         <v>46961</v>
       </c>
       <c r="O4">
-        <v>10137</v>
+        <v>10138</v>
       </c>
       <c r="P4">
         <v>776</v>
       </c>
       <c r="Q4">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S4" t="s">
         <v>184</v>
@@ -4461,10 +4461,10 @@
         <v>3369646</v>
       </c>
       <c r="W4">
-        <v>300.8</v>
+        <v>300.9</v>
       </c>
       <c r="X4">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="Y4" t="s">
         <v>277</v>
@@ -4647,7 +4647,7 @@
         <v>46287</v>
       </c>
       <c r="H7">
-        <v>57009</v>
+        <v>57017</v>
       </c>
       <c r="I7">
         <v>46392.8</v>
@@ -4668,7 +4668,7 @@
         <v>47035.8</v>
       </c>
       <c r="O7">
-        <v>10616.2</v>
+        <v>10624.2</v>
       </c>
       <c r="P7">
         <v>643</v>
@@ -4692,7 +4692,7 @@
         <v>5271996</v>
       </c>
       <c r="W7">
-        <v>201.4</v>
+        <v>201.5</v>
       </c>
       <c r="X7">
         <v>12.2</v>
@@ -4801,7 +4801,7 @@
         <v>5784</v>
       </c>
       <c r="H9">
-        <v>6331</v>
+        <v>6339</v>
       </c>
       <c r="I9">
         <v>5999</v>
@@ -4822,13 +4822,13 @@
         <v>6067.8</v>
       </c>
       <c r="O9">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="P9">
         <v>68.8</v>
       </c>
       <c r="Q9">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="R9">
         <v>1.2</v>
@@ -4846,10 +4846,10 @@
         <v>629277</v>
       </c>
       <c r="W9">
-        <v>52.8</v>
+        <v>54</v>
       </c>
       <c r="X9">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="Y9" t="s">
         <v>282</v>
@@ -4955,7 +4955,7 @@
         <v>243172</v>
       </c>
       <c r="H11">
-        <v>283085</v>
+        <v>283140</v>
       </c>
       <c r="I11">
         <v>246627.4</v>
@@ -4976,7 +4976,7 @@
         <v>248114.2</v>
       </c>
       <c r="O11">
-        <v>36457.6</v>
+        <v>36512.6</v>
       </c>
       <c r="P11">
         <v>1486.8</v>
@@ -5000,10 +5000,10 @@
         <v>32532669</v>
       </c>
       <c r="W11">
-        <v>112.1</v>
+        <v>112.2</v>
       </c>
       <c r="X11">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y11" t="s">
         <v>284</v>
@@ -5263,7 +5263,7 @@
         <v>244383</v>
       </c>
       <c r="H15">
-        <v>309085</v>
+        <v>309196</v>
       </c>
       <c r="I15">
         <v>251770.4</v>
@@ -5284,7 +5284,7 @@
         <v>255004.9</v>
       </c>
       <c r="O15">
-        <v>57314.6</v>
+        <v>57425.6</v>
       </c>
       <c r="P15">
         <v>3234.5</v>
@@ -5293,7 +5293,7 @@
         <v>22.8</v>
       </c>
       <c r="R15">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="S15" t="s">
         <v>195</v>
@@ -5308,7 +5308,7 @@
         <v>29050096</v>
       </c>
       <c r="W15">
-        <v>197.3</v>
+        <v>197.7</v>
       </c>
       <c r="X15">
         <v>11.1</v>
@@ -5340,7 +5340,7 @@
         <v>10328</v>
       </c>
       <c r="H16">
-        <v>11229</v>
+        <v>11377</v>
       </c>
       <c r="I16">
         <v>11066.6</v>
@@ -5361,13 +5361,13 @@
         <v>11290.9</v>
       </c>
       <c r="O16">
-        <v>162.4</v>
+        <v>310.4</v>
       </c>
       <c r="P16">
         <v>224.3</v>
       </c>
       <c r="Q16">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="R16">
         <v>2</v>
@@ -5385,7 +5385,7 @@
         <v>880956</v>
       </c>
       <c r="W16">
-        <v>18.4</v>
+        <v>35.2</v>
       </c>
       <c r="X16">
         <v>25.5</v>
@@ -5648,7 +5648,7 @@
         <v>1467</v>
       </c>
       <c r="H20">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="I20">
         <v>1436.6</v>
@@ -5669,13 +5669,13 @@
         <v>1490.8</v>
       </c>
       <c r="O20">
-        <v>270.4</v>
+        <v>271.4</v>
       </c>
       <c r="P20">
         <v>54.2</v>
       </c>
       <c r="Q20">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="R20">
         <v>4.3</v>
@@ -5693,7 +5693,7 @@
         <v>265762</v>
       </c>
       <c r="W20">
-        <v>101.7</v>
+        <v>102.1</v>
       </c>
       <c r="X20">
         <v>20.4</v>
@@ -5725,7 +5725,7 @@
         <v>2778</v>
       </c>
       <c r="H21">
-        <v>3345</v>
+        <v>3293</v>
       </c>
       <c r="I21">
         <v>2765.599999999999</v>
@@ -5746,13 +5746,13 @@
         <v>2818.399999999999</v>
       </c>
       <c r="O21">
-        <v>579.4</v>
+        <v>527.4</v>
       </c>
       <c r="P21">
         <v>52.8</v>
       </c>
       <c r="Q21">
-        <v>21</v>
+        <v>19.1</v>
       </c>
       <c r="R21">
         <v>2.3</v>
@@ -5770,10 +5770,10 @@
         <v>307555</v>
       </c>
       <c r="W21">
-        <v>188.4</v>
+        <v>171.5</v>
       </c>
       <c r="X21">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="Y21" t="s">
         <v>294</v>
@@ -5787,49 +5787,49 @@
         <v>46</v>
       </c>
       <c r="C22">
-        <v>58269</v>
+        <v>58204</v>
       </c>
       <c r="D22">
-        <v>58222</v>
+        <v>58165</v>
       </c>
       <c r="E22">
-        <v>57725</v>
+        <v>57679</v>
       </c>
       <c r="F22">
-        <v>59340</v>
+        <v>59293</v>
       </c>
       <c r="G22">
-        <v>60433</v>
+        <v>60390</v>
       </c>
       <c r="H22">
-        <v>71702</v>
+        <v>71757</v>
       </c>
       <c r="I22">
-        <v>59954.59999999998</v>
+        <v>59899.8</v>
       </c>
       <c r="J22">
-        <v>972.6</v>
+        <v>976.9</v>
       </c>
       <c r="K22">
         <v>1.96</v>
       </c>
       <c r="L22">
-        <v>852.5</v>
+        <v>856.3</v>
       </c>
       <c r="M22">
-        <v>59102.09999999998</v>
+        <v>59043.49999999999</v>
       </c>
       <c r="N22">
-        <v>60807.09999999998</v>
+        <v>60756.1</v>
       </c>
       <c r="O22">
-        <v>11747.4</v>
+        <v>11857.2</v>
       </c>
       <c r="P22">
-        <v>852.5</v>
+        <v>856.3</v>
       </c>
       <c r="Q22">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="R22">
         <v>1.7</v>
@@ -5847,7 +5847,7 @@
         <v>8648031</v>
       </c>
       <c r="W22">
-        <v>135.8</v>
+        <v>137.1</v>
       </c>
       <c r="X22">
         <v>9.9</v>
@@ -5873,43 +5873,43 @@
         <v>15668</v>
       </c>
       <c r="F23">
-        <v>15922</v>
+        <v>15923</v>
       </c>
       <c r="G23">
-        <v>16132</v>
+        <v>16133</v>
       </c>
       <c r="H23">
-        <v>16587</v>
+        <v>16580</v>
       </c>
       <c r="I23">
-        <v>16271.2</v>
+        <v>16271.6</v>
       </c>
       <c r="J23">
-        <v>192.3</v>
+        <v>192.6</v>
       </c>
       <c r="K23">
         <v>1.96</v>
       </c>
       <c r="L23">
-        <v>168.6</v>
+        <v>168.8</v>
       </c>
       <c r="M23">
-        <v>16102.6</v>
+        <v>16102.8</v>
       </c>
       <c r="N23">
-        <v>16439.8</v>
+        <v>16440.40000000001</v>
       </c>
       <c r="O23">
-        <v>315.8</v>
+        <v>308.4</v>
       </c>
       <c r="P23">
-        <v>168.6</v>
+        <v>168.8</v>
       </c>
       <c r="Q23">
         <v>1.9</v>
       </c>
       <c r="R23">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="S23" t="s">
         <v>203</v>
@@ -5924,7 +5924,7 @@
         <v>2706562</v>
       </c>
       <c r="W23">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="X23">
         <v>6.2</v>
@@ -6110,7 +6110,7 @@
         <v>108283</v>
       </c>
       <c r="H26">
-        <v>135214</v>
+        <v>135274</v>
       </c>
       <c r="I26">
         <v>112198.2</v>
@@ -6131,13 +6131,13 @@
         <v>113722.9</v>
       </c>
       <c r="O26">
-        <v>23015.8</v>
+        <v>23075.8</v>
       </c>
       <c r="P26">
         <v>1524.7</v>
       </c>
       <c r="Q26">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="R26">
         <v>1.6</v>
@@ -6155,7 +6155,7 @@
         <v>9460661</v>
       </c>
       <c r="W26">
-        <v>243.3</v>
+        <v>243.9</v>
       </c>
       <c r="X26">
         <v>16.1</v>
@@ -6264,7 +6264,7 @@
         <v>21897</v>
       </c>
       <c r="H28">
-        <v>25867</v>
+        <v>25869</v>
       </c>
       <c r="I28">
         <v>22445</v>
@@ -6285,16 +6285,16 @@
         <v>22702.90000000001</v>
       </c>
       <c r="O28">
-        <v>3422</v>
+        <v>3424</v>
       </c>
       <c r="P28">
         <v>257.9</v>
       </c>
       <c r="Q28">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="R28">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="S28" t="s">
         <v>208</v>
@@ -6309,10 +6309,10 @@
         <v>2665350</v>
       </c>
       <c r="W28">
-        <v>128.4</v>
+        <v>128.5</v>
       </c>
       <c r="X28">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="Y28" t="s">
         <v>301</v>
@@ -6341,7 +6341,7 @@
         <v>7959</v>
       </c>
       <c r="H29">
-        <v>9952</v>
+        <v>9971</v>
       </c>
       <c r="I29">
         <v>8109.4</v>
@@ -6362,13 +6362,13 @@
         <v>8230.1</v>
       </c>
       <c r="O29">
-        <v>1842.6</v>
+        <v>1861.6</v>
       </c>
       <c r="P29">
         <v>120.7</v>
       </c>
       <c r="Q29">
-        <v>22.7</v>
+        <v>23</v>
       </c>
       <c r="R29">
         <v>1.8</v>
@@ -6386,7 +6386,7 @@
         <v>1051066</v>
       </c>
       <c r="W29">
-        <v>175.3</v>
+        <v>177.1</v>
       </c>
       <c r="X29">
         <v>11.5</v>
@@ -6418,7 +6418,7 @@
         <v>166777</v>
       </c>
       <c r="H30">
-        <v>212201</v>
+        <v>210161</v>
       </c>
       <c r="I30">
         <v>171142.9999999999</v>
@@ -6439,16 +6439,16 @@
         <v>172041.2</v>
       </c>
       <c r="O30">
-        <v>41058</v>
+        <v>39018</v>
       </c>
       <c r="P30">
         <v>898.2</v>
       </c>
       <c r="Q30">
-        <v>24</v>
+        <v>22.8</v>
       </c>
       <c r="R30">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="S30" t="s">
         <v>210</v>
@@ -6463,7 +6463,7 @@
         <v>23199313</v>
       </c>
       <c r="W30">
-        <v>177</v>
+        <v>168.2</v>
       </c>
       <c r="X30">
         <v>3.9</v>
@@ -6816,7 +6816,7 @@
         <v>86854</v>
       </c>
       <c r="H3">
-        <v>108393</v>
+        <v>107914</v>
       </c>
       <c r="I3">
         <v>89075.80000000003</v>
@@ -6837,16 +6837,16 @@
         <v>89999.80000000003</v>
       </c>
       <c r="O3">
-        <v>19317.2</v>
+        <v>18838.2</v>
       </c>
       <c r="P3">
         <v>924</v>
       </c>
       <c r="Q3">
-        <v>21.7</v>
+        <v>21.1</v>
       </c>
       <c r="R3">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="S3" t="s">
         <v>308</v>
@@ -6861,10 +6861,10 @@
         <v>11522440</v>
       </c>
       <c r="W3">
-        <v>167.6</v>
+        <v>163.5</v>
       </c>
       <c r="X3">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="s">
         <v>401</v>
@@ -6893,7 +6893,7 @@
         <v>85333</v>
       </c>
       <c r="H4">
-        <v>106154</v>
+        <v>106159</v>
       </c>
       <c r="I4">
         <v>88783.60000000001</v>
@@ -6914,7 +6914,7 @@
         <v>90300.40000000001</v>
       </c>
       <c r="O4">
-        <v>17370.4</v>
+        <v>17375.4</v>
       </c>
       <c r="P4">
         <v>1516.8</v>
@@ -6938,7 +6938,7 @@
         <v>6951482</v>
       </c>
       <c r="W4">
-        <v>249.9</v>
+        <v>250</v>
       </c>
       <c r="X4">
         <v>21.8</v>
@@ -7124,7 +7124,7 @@
         <v>90493</v>
       </c>
       <c r="H7">
-        <v>110461</v>
+        <v>110472</v>
       </c>
       <c r="I7">
         <v>91116.20000000003</v>
@@ -7145,7 +7145,7 @@
         <v>92466.70000000003</v>
       </c>
       <c r="O7">
-        <v>19344.8</v>
+        <v>19355.8</v>
       </c>
       <c r="P7">
         <v>1350.5</v>
@@ -7169,7 +7169,7 @@
         <v>10693939</v>
       </c>
       <c r="W7">
-        <v>180.9</v>
+        <v>181</v>
       </c>
       <c r="X7">
         <v>12.6</v>
@@ -7278,7 +7278,7 @@
         <v>12316</v>
       </c>
       <c r="H9">
-        <v>13419</v>
+        <v>13432</v>
       </c>
       <c r="I9">
         <v>12642.8</v>
@@ -7299,13 +7299,13 @@
         <v>12759.5</v>
       </c>
       <c r="O9">
-        <v>776.2</v>
+        <v>789.2</v>
       </c>
       <c r="P9">
         <v>116.7</v>
       </c>
       <c r="Q9">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="R9">
         <v>0.9</v>
@@ -7323,7 +7323,7 @@
         <v>1328976</v>
       </c>
       <c r="W9">
-        <v>58.4</v>
+        <v>59.4</v>
       </c>
       <c r="X9">
         <v>8.800000000000001</v>
@@ -7432,7 +7432,7 @@
         <v>487721</v>
       </c>
       <c r="H11">
-        <v>564349</v>
+        <v>564436</v>
       </c>
       <c r="I11">
         <v>492698.8</v>
@@ -7453,13 +7453,13 @@
         <v>496179.1</v>
       </c>
       <c r="O11">
-        <v>71650.2</v>
+        <v>71737.2</v>
       </c>
       <c r="P11">
         <v>3480.3</v>
       </c>
       <c r="Q11">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="R11">
         <v>0.8</v>
@@ -7477,10 +7477,10 @@
         <v>67320216</v>
       </c>
       <c r="W11">
-        <v>106.4</v>
+        <v>106.6</v>
       </c>
       <c r="X11">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y11" t="s">
         <v>409</v>
@@ -7740,7 +7740,7 @@
         <v>507862</v>
       </c>
       <c r="H15">
-        <v>633002</v>
+        <v>633192</v>
       </c>
       <c r="I15">
         <v>523663.9999999999</v>
@@ -7761,7 +7761,7 @@
         <v>531878.9999999999</v>
       </c>
       <c r="O15">
-        <v>109338</v>
+        <v>109528</v>
       </c>
       <c r="P15">
         <v>8215</v>
@@ -7785,7 +7785,7 @@
         <v>59641488</v>
       </c>
       <c r="W15">
-        <v>183.3</v>
+        <v>183.6</v>
       </c>
       <c r="X15">
         <v>13.8</v>
@@ -7817,7 +7817,7 @@
         <v>22074</v>
       </c>
       <c r="H16">
-        <v>24093</v>
+        <v>24325</v>
       </c>
       <c r="I16">
         <v>23424.6</v>
@@ -7838,16 +7838,16 @@
         <v>23849.3</v>
       </c>
       <c r="O16">
-        <v>668.4</v>
+        <v>900.4</v>
       </c>
       <c r="P16">
         <v>424.7</v>
       </c>
       <c r="Q16">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="R16">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S16" t="s">
         <v>321</v>
@@ -7862,7 +7862,7 @@
         <v>1907675</v>
       </c>
       <c r="W16">
-        <v>35</v>
+        <v>47.2</v>
       </c>
       <c r="X16">
         <v>22.3</v>
@@ -8125,7 +8125,7 @@
         <v>2815</v>
       </c>
       <c r="H20">
-        <v>3332</v>
+        <v>3338</v>
       </c>
       <c r="I20">
         <v>2826</v>
@@ -8146,13 +8146,13 @@
         <v>2891.4</v>
       </c>
       <c r="O20">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="P20">
         <v>65.40000000000001</v>
       </c>
       <c r="Q20">
-        <v>17.9</v>
+        <v>18.1</v>
       </c>
       <c r="R20">
         <v>2.7</v>
@@ -8170,7 +8170,7 @@
         <v>514564</v>
       </c>
       <c r="W20">
-        <v>98.3</v>
+        <v>99.5</v>
       </c>
       <c r="X20">
         <v>12.7</v>
@@ -8202,7 +8202,7 @@
         <v>5223</v>
       </c>
       <c r="H21">
-        <v>6201</v>
+        <v>6107</v>
       </c>
       <c r="I21">
         <v>5294.800000000001</v>
@@ -8223,13 +8223,13 @@
         <v>5357.000000000001</v>
       </c>
       <c r="O21">
-        <v>906.2</v>
+        <v>812.2</v>
       </c>
       <c r="P21">
         <v>62.2</v>
       </c>
       <c r="Q21">
-        <v>17.1</v>
+        <v>15.3</v>
       </c>
       <c r="R21">
         <v>1.3</v>
@@ -8247,7 +8247,7 @@
         <v>621873</v>
       </c>
       <c r="W21">
-        <v>145.7</v>
+        <v>130.6</v>
       </c>
       <c r="X21">
         <v>10</v>
@@ -8264,52 +8264,52 @@
         <v>46</v>
       </c>
       <c r="C22">
-        <v>119936</v>
+        <v>119825</v>
       </c>
       <c r="D22">
-        <v>120124</v>
+        <v>120023</v>
       </c>
       <c r="E22">
-        <v>118562</v>
+        <v>118510</v>
       </c>
       <c r="F22">
-        <v>121388</v>
+        <v>121315</v>
       </c>
       <c r="G22">
-        <v>123017</v>
+        <v>122967</v>
       </c>
       <c r="H22">
-        <v>142890</v>
+        <v>142959</v>
       </c>
       <c r="I22">
-        <v>122939.8</v>
+        <v>122856.8</v>
       </c>
       <c r="J22">
-        <v>1502.2</v>
+        <v>1509.3</v>
       </c>
       <c r="K22">
         <v>1.96</v>
       </c>
       <c r="L22">
-        <v>1316.7</v>
+        <v>1323</v>
       </c>
       <c r="M22">
-        <v>121623.1</v>
+        <v>121533.8</v>
       </c>
       <c r="N22">
-        <v>124256.5</v>
+        <v>124179.8</v>
       </c>
       <c r="O22">
-        <v>19950.2</v>
+        <v>20102.2</v>
       </c>
       <c r="P22">
-        <v>1316.7</v>
+        <v>1323</v>
       </c>
       <c r="Q22">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="R22">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="S22" t="s">
         <v>327</v>
@@ -8324,7 +8324,7 @@
         <v>17407585</v>
       </c>
       <c r="W22">
-        <v>114.6</v>
+        <v>115.5</v>
       </c>
       <c r="X22">
         <v>7.6</v>
@@ -8350,37 +8350,37 @@
         <v>32443</v>
       </c>
       <c r="F23">
-        <v>32568</v>
+        <v>32569</v>
       </c>
       <c r="G23">
-        <v>32864</v>
+        <v>32866</v>
       </c>
       <c r="H23">
-        <v>33541</v>
+        <v>33536</v>
       </c>
       <c r="I23">
-        <v>33430.39999999999</v>
+        <v>33431</v>
       </c>
       <c r="J23">
-        <v>281.6</v>
+        <v>281.7</v>
       </c>
       <c r="K23">
         <v>1.96</v>
       </c>
       <c r="L23">
-        <v>246.8</v>
+        <v>246.9</v>
       </c>
       <c r="M23">
-        <v>33183.59999999999</v>
+        <v>33184.1</v>
       </c>
       <c r="N23">
-        <v>33677.2</v>
+        <v>33677.9</v>
       </c>
       <c r="O23">
-        <v>110.6</v>
+        <v>105</v>
       </c>
       <c r="P23">
-        <v>246.8</v>
+        <v>246.9</v>
       </c>
       <c r="Q23">
         <v>0.3</v>
@@ -8401,7 +8401,7 @@
         <v>5367580</v>
       </c>
       <c r="W23">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="X23">
         <v>4.6</v>
@@ -8587,7 +8587,7 @@
         <v>205978</v>
       </c>
       <c r="H26">
-        <v>253027</v>
+        <v>253134</v>
       </c>
       <c r="I26">
         <v>213926.6</v>
@@ -8608,7 +8608,7 @@
         <v>217045.4</v>
       </c>
       <c r="O26">
-        <v>39100.4</v>
+        <v>39207.4</v>
       </c>
       <c r="P26">
         <v>3118.8</v>
@@ -8632,10 +8632,10 @@
         <v>19328838</v>
       </c>
       <c r="W26">
-        <v>202.3</v>
+        <v>202.8</v>
       </c>
       <c r="X26">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="Y26" t="s">
         <v>424</v>
@@ -8741,7 +8741,7 @@
         <v>42328</v>
       </c>
       <c r="H28">
-        <v>50157</v>
+        <v>50161</v>
       </c>
       <c r="I28">
         <v>43723.00000000001</v>
@@ -8762,7 +8762,7 @@
         <v>44267.60000000001</v>
       </c>
       <c r="O28">
-        <v>6434</v>
+        <v>6438</v>
       </c>
       <c r="P28">
         <v>544.6</v>
@@ -8786,10 +8786,10 @@
         <v>5457873</v>
       </c>
       <c r="W28">
-        <v>117.9</v>
+        <v>118</v>
       </c>
       <c r="X28">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="Y28" t="s">
         <v>426</v>
@@ -8818,7 +8818,7 @@
         <v>16185</v>
       </c>
       <c r="H29">
-        <v>20338</v>
+        <v>20372</v>
       </c>
       <c r="I29">
         <v>16394.8</v>
@@ -8839,13 +8839,13 @@
         <v>16643.6</v>
       </c>
       <c r="O29">
-        <v>3943.2</v>
+        <v>3977.2</v>
       </c>
       <c r="P29">
         <v>248.8</v>
       </c>
       <c r="Q29">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="R29">
         <v>1.9</v>
@@ -8863,10 +8863,10 @@
         <v>2095861</v>
       </c>
       <c r="W29">
-        <v>188.1</v>
+        <v>189.8</v>
       </c>
       <c r="X29">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="Y29" t="s">
         <v>427</v>
@@ -8895,7 +8895,7 @@
         <v>327996</v>
       </c>
       <c r="H30">
-        <v>418965</v>
+        <v>415179</v>
       </c>
       <c r="I30">
         <v>336931.9999999999</v>
@@ -8916,13 +8916,13 @@
         <v>338588.3999999999</v>
       </c>
       <c r="O30">
-        <v>82033</v>
+        <v>78247</v>
       </c>
       <c r="P30">
         <v>1656.4</v>
       </c>
       <c r="Q30">
-        <v>24.3</v>
+        <v>23.2</v>
       </c>
       <c r="R30">
         <v>0.6</v>
@@ -8940,7 +8940,7 @@
         <v>47332614</v>
       </c>
       <c r="W30">
-        <v>173.3</v>
+        <v>165.3</v>
       </c>
       <c r="X30">
         <v>3.5</v>

--- a/data_output/Excess Mortality/Countries/2020/2020_AGE_AGGREGATED_TOTAL_EU_['Female', 'Male', 'Total']_Total.xlsx
+++ b/data_output/Excess Mortality/Countries/2020/2020_AGE_AGGREGATED_TOTAL_EU_['Female', 'Male', 'Total']_Total.xlsx
@@ -289,40 +289,40 @@
     <t>9798.2 (±615.7)</t>
   </si>
   <si>
-    <t>7237.4 (±760.4)</t>
+    <t>7241.4 (±760.4)</t>
   </si>
   <si>
     <t>2663.6 (±437.6)</t>
   </si>
   <si>
-    <t>241.0 (±66.7)</t>
-  </si>
-  <si>
-    <t>8731.6 (±750.6)</t>
-  </si>
-  <si>
-    <t>466.8 (±181.6)</t>
-  </si>
-  <si>
-    <t>449.2 (±67.3)</t>
+    <t>147.0 (±66.7)</t>
+  </si>
+  <si>
+    <t>8739.6 (±750.6)</t>
+  </si>
+  <si>
+    <t>467.8 (±181.6)</t>
+  </si>
+  <si>
+    <t>374.2 (±67.3)</t>
   </si>
   <si>
     <t>954.4 (±218.3)</t>
   </si>
   <si>
-    <t>35224.6 (±2178.2)</t>
+    <t>35245.6 (±2178.2)</t>
   </si>
   <si>
     <t>4590.2 (±632.2)</t>
   </si>
   <si>
-    <t>7112.8 (±873.7)</t>
+    <t>7140.8 (±873.7)</t>
   </si>
   <si>
     <t>-5.2 (±17.9)</t>
   </si>
   <si>
-    <t>52102.4 (±5002.1)</t>
+    <t>52113.4 (±5002.1)</t>
   </si>
   <si>
     <t>590.0 (±220.9)</t>
@@ -340,13 +340,13 @@
     <t>240.6 (±15.6)</t>
   </si>
   <si>
-    <t>284.8 (±50.6)</t>
+    <t>396.8 (±50.6)</t>
   </si>
   <si>
     <t>8245.0 (±499.8)</t>
   </si>
   <si>
-    <t>-203.4 (±135.0)</t>
+    <t>-200.4 (±135.0)</t>
   </si>
   <si>
     <t>36473.6 (±3267.6)</t>
@@ -361,16 +361,16 @@
     <t>3229.8 (±811.8)</t>
   </si>
   <si>
-    <t>3014.0 (±308.0)</t>
-  </si>
-  <si>
-    <t>2115.6 (±136.4)</t>
-  </si>
-  <si>
-    <t>39229.0 (±795.9)</t>
-  </si>
-  <si>
-    <t>3035.8 (±631.8)</t>
+    <t>3017.0 (±308.0)</t>
+  </si>
+  <si>
+    <t>2116.6 (±136.4)</t>
+  </si>
+  <si>
+    <t>39230.0 (±795.9)</t>
+  </si>
+  <si>
+    <t>3036.8 (±631.8)</t>
   </si>
   <si>
     <t>4634.8 (±345.4)</t>
@@ -388,7 +388,7 @@
     <t>12.2% (±2.2%)</t>
   </si>
   <si>
-    <t>10.8% (±3.2%)</t>
+    <t>6.6% (±3.1%)</t>
   </si>
   <si>
     <t>19.5% (±1.9%)</t>
@@ -397,7 +397,7 @@
     <t>2.1% (±0.8%)</t>
   </si>
   <si>
-    <t>6.8% (±1.1%)</t>
+    <t>5.6% (±1.0%)</t>
   </si>
   <si>
     <t>4.3% (±1.0%)</t>
@@ -409,7 +409,7 @@
     <t>9.4% (±1.4%)</t>
   </si>
   <si>
-    <t>13.2% (±1.8%)</t>
+    <t>13.3% (±1.8%)</t>
   </si>
   <si>
     <t>-0.6% (±1.9%)</t>
@@ -433,13 +433,13 @@
     <t>17.3% (±1.3%)</t>
   </si>
   <si>
-    <t>11.3% (±2.2%)</t>
+    <t>15.7% (±2.3%)</t>
   </si>
   <si>
     <t>13.1% (±0.9%)</t>
   </si>
   <si>
-    <t>-1.2% (±0.8%)</t>
+    <t>-1.2% (±0.7%)</t>
   </si>
   <si>
     <t>23.0% (±2.5%)</t>
@@ -475,40 +475,40 @@
     <t>167.7(±10.6)</t>
   </si>
   <si>
-    <t>202.1(±21.2)</t>
+    <t>202.2(±21.2)</t>
   </si>
   <si>
     <t>127.7(±20.9)</t>
   </si>
   <si>
-    <t>53.1(±14.7)</t>
-  </si>
-  <si>
-    <t>161.0(±13.9)</t>
+    <t>32.4(±14.7)</t>
+  </si>
+  <si>
+    <t>161.2(±13.8)</t>
   </si>
   <si>
     <t>16.0(±6.2)</t>
   </si>
   <si>
-    <t>64.2(±9.6)</t>
+    <t>53.5(±9.6)</t>
   </si>
   <si>
     <t>34.1(±7.8)</t>
   </si>
   <si>
-    <t>101.3(±6.2)</t>
+    <t>101.3(±6.3)</t>
   </si>
   <si>
     <t>83.4(±11.5)</t>
   </si>
   <si>
-    <t>139.8(±17.1)</t>
+    <t>140.3(±17.2)</t>
   </si>
   <si>
     <t>-2.9(±10.1)</t>
   </si>
   <si>
-    <t>170.3(±16.4)</t>
+    <t>170.4(±16.3)</t>
   </si>
   <si>
     <t>57.5(±21.5)</t>
@@ -526,13 +526,13 @@
     <t>96.7(±6.3)</t>
   </si>
   <si>
-    <t>90.6(±16.1)</t>
+    <t>126.2(±16.1)</t>
   </si>
   <si>
     <t>94.1(±5.7)</t>
   </si>
   <si>
-    <t>-7.6(±5.0)</t>
+    <t>-7.5(±5.0)</t>
   </si>
   <si>
     <t>186.2(±16.7)</t>
@@ -547,13 +547,13 @@
     <t>90.9(±22.9)</t>
   </si>
   <si>
-    <t>107.9(±11.1)</t>
-  </si>
-  <si>
-    <t>202.5(±13.0)</t>
-  </si>
-  <si>
-    <t>162.6(±3.2)</t>
+    <t>108.0(±11.1)</t>
+  </si>
+  <si>
+    <t>202.6(±13.0)</t>
+  </si>
+  <si>
+    <t>162.6(±3.3)</t>
   </si>
   <si>
     <t>59.2(±12.3)</t>
@@ -628,7 +628,7 @@
     <t>59899.8 (±856.3)</t>
   </si>
   <si>
-    <t>16271.6 (±168.8)</t>
+    <t>16272.8 (±169.3)</t>
   </si>
   <si>
     <t>171510.0 (±2321.3)</t>
@@ -661,43 +661,43 @@
     <t>5549.6 (±548.4)</t>
   </si>
   <si>
-    <t>9040.0 (±335.8)</t>
-  </si>
-  <si>
-    <t>10138.0 (±776.0)</t>
+    <t>9039.0 (±335.8)</t>
+  </si>
+  <si>
+    <t>10139.0 (±776.0)</t>
   </si>
   <si>
     <t>2787.4 (±427.5)</t>
   </si>
   <si>
-    <t>326.0 (±85.0)</t>
-  </si>
-  <si>
-    <t>10624.2 (±643.0)</t>
+    <t>193.0 (±85.0)</t>
+  </si>
+  <si>
+    <t>10630.2 (±643.0)</t>
   </si>
   <si>
     <t>1192.2 (±363.3)</t>
   </si>
   <si>
-    <t>340.0 (±68.8)</t>
+    <t>267.0 (±68.8)</t>
   </si>
   <si>
     <t>1268.8 (±154.1)</t>
   </si>
   <si>
-    <t>36512.6 (±1486.8)</t>
+    <t>36550.6 (±1486.8)</t>
   </si>
   <si>
     <t>3920.0 (±450.5)</t>
   </si>
   <si>
-    <t>6361.0 (±741.9)</t>
+    <t>6416.0 (±741.9)</t>
   </si>
   <si>
     <t>21.2 (±25.8)</t>
   </si>
   <si>
-    <t>57425.6 (±3234.5)</t>
+    <t>57444.6 (±3234.5)</t>
   </si>
   <si>
     <t>310.4 (±224.3)</t>
@@ -712,16 +712,16 @@
     <t>287.0 (±40.4)</t>
   </si>
   <si>
-    <t>271.4 (±54.2)</t>
-  </si>
-  <si>
-    <t>527.4 (±52.8)</t>
+    <t>272.4 (±54.2)</t>
+  </si>
+  <si>
+    <t>657.4 (±52.8)</t>
   </si>
   <si>
     <t>11857.2 (±856.3)</t>
   </si>
   <si>
-    <t>308.4 (±168.8)</t>
+    <t>317.2 (±169.3)</t>
   </si>
   <si>
     <t>43890.0 (±2321.3)</t>
@@ -736,13 +736,13 @@
     <t>6714.6 (±797.9)</t>
   </si>
   <si>
-    <t>3424.0 (±257.9)</t>
-  </si>
-  <si>
-    <t>1861.6 (±120.7)</t>
-  </si>
-  <si>
-    <t>39018.0 (±898.2)</t>
+    <t>3425.0 (±257.9)</t>
+  </si>
+  <si>
+    <t>1862.6 (±120.7)</t>
+  </si>
+  <si>
+    <t>39020.0 (±898.2)</t>
   </si>
   <si>
     <t>4648.4 (±584.3)</t>
@@ -763,7 +763,7 @@
     <t>13.2% (±2.2%)</t>
   </si>
   <si>
-    <t>13.1% (±3.7%)</t>
+    <t>7.7% (±3.5%)</t>
   </si>
   <si>
     <t>22.9% (±1.7%)</t>
@@ -772,7 +772,7 @@
     <t>5.4% (±1.7%)</t>
   </si>
   <si>
-    <t>5.7% (±1.2%)</t>
+    <t>4.5% (±1.2%)</t>
   </si>
   <si>
     <t>5.7% (±0.7%)</t>
@@ -784,7 +784,7 @@
     <t>7.7% (±0.9%)</t>
   </si>
   <si>
-    <t>12.3% (±1.6%)</t>
+    <t>12.4% (±1.6%)</t>
   </si>
   <si>
     <t>2.2% (±2.7%)</t>
@@ -805,16 +805,16 @@
     <t>16.5% (±2.6%)</t>
   </si>
   <si>
-    <t>18.9% (±4.3%)</t>
-  </si>
-  <si>
-    <t>19.1% (±2.3%)</t>
+    <t>19.0% (±4.4%)</t>
+  </si>
+  <si>
+    <t>23.8% (±2.3%)</t>
   </si>
   <si>
     <t>19.8% (±1.7%)</t>
   </si>
   <si>
-    <t>1.9% (±1.1%)</t>
+    <t>1.9% (±1.0%)</t>
   </si>
   <si>
     <t>25.6% (±1.7%)</t>
@@ -829,7 +829,7 @@
     <t>16.0% (±2.1%)</t>
   </si>
   <si>
-    <t>15.3% (±1.4%)</t>
+    <t>15.3% (±1.3%)</t>
   </si>
   <si>
     <t>23.0% (±1.8%)</t>
@@ -856,34 +856,34 @@
     <t>141.4(±21.7)</t>
   </si>
   <si>
-    <t>75.0(±19.6)</t>
-  </si>
-  <si>
-    <t>201.5(±12.2)</t>
+    <t>44.4(±19.6)</t>
+  </si>
+  <si>
+    <t>201.6(±12.2)</t>
   </si>
   <si>
     <t>41.2(±12.5)</t>
   </si>
   <si>
-    <t>54.0(±11.0)</t>
+    <t>42.4(±11.0)</t>
   </si>
   <si>
     <t>46.5(±5.7)</t>
   </si>
   <si>
-    <t>112.2(±4.6)</t>
+    <t>112.4(±4.5)</t>
   </si>
   <si>
     <t>75.2(±8.6)</t>
   </si>
   <si>
-    <t>135.9(±15.8)</t>
+    <t>137.1(±15.8)</t>
   </si>
   <si>
     <t>11.3(±13.8)</t>
   </si>
   <si>
-    <t>197.7(±11.1)</t>
+    <t>197.7(±11.2)</t>
   </si>
   <si>
     <t>35.2(±25.5)</t>
@@ -898,16 +898,16 @@
     <t>91.1(±12.8)</t>
   </si>
   <si>
-    <t>102.1(±20.4)</t>
-  </si>
-  <si>
-    <t>171.5(±17.1)</t>
+    <t>102.5(±20.4)</t>
+  </si>
+  <si>
+    <t>213.8(±17.1)</t>
   </si>
   <si>
     <t>137.1(±9.9)</t>
   </si>
   <si>
-    <t>11.4(±6.2)</t>
+    <t>11.7(±6.3)</t>
   </si>
   <si>
     <t>238.9(±12.6)</t>
@@ -922,10 +922,10 @@
     <t>199.0(±23.6)</t>
   </si>
   <si>
-    <t>128.5(±9.6)</t>
-  </si>
-  <si>
-    <t>177.1(±11.5)</t>
+    <t>128.5(±9.7)</t>
+  </si>
+  <si>
+    <t>177.2(±11.5)</t>
   </si>
   <si>
     <t>168.2(±3.9)</t>
@@ -1003,7 +1003,7 @@
     <t>122856.8 (±1323.0)</t>
   </si>
   <si>
-    <t>33431.0 (±246.9)</t>
+    <t>33432.2 (±246.7)</t>
   </si>
   <si>
     <t>329989.4 (±5560.1)</t>
@@ -1036,43 +1036,43 @@
     <t>9553.2 (±904.4)</t>
   </si>
   <si>
-    <t>18838.2 (±924.0)</t>
-  </si>
-  <si>
-    <t>17375.4 (±1516.8)</t>
+    <t>18837.2 (±924.0)</t>
+  </si>
+  <si>
+    <t>17380.4 (±1516.8)</t>
   </si>
   <si>
     <t>5451.0 (±839.4)</t>
   </si>
   <si>
-    <t>567.0 (±150.4)</t>
-  </si>
-  <si>
-    <t>19355.8 (±1350.5)</t>
-  </si>
-  <si>
-    <t>1659.0 (±498.0)</t>
-  </si>
-  <si>
-    <t>789.2 (±116.7)</t>
+    <t>340.0 (±150.4)</t>
+  </si>
+  <si>
+    <t>19369.8 (±1350.5)</t>
+  </si>
+  <si>
+    <t>1660.0 (±498.0)</t>
+  </si>
+  <si>
+    <t>641.2 (±116.7)</t>
   </si>
   <si>
     <t>2223.2 (±335.2)</t>
   </si>
   <si>
-    <t>71737.2 (±3480.3)</t>
+    <t>71796.2 (±3480.3)</t>
   </si>
   <si>
     <t>8510.2 (±1041.4)</t>
   </si>
   <si>
-    <t>13473.8 (±1544.5)</t>
+    <t>13556.8 (±1544.5)</t>
   </si>
   <si>
     <t>16.0 (±40.9)</t>
   </si>
   <si>
-    <t>109528.0 (±8215.0)</t>
+    <t>109558.0 (±8215.0)</t>
   </si>
   <si>
     <t>900.4 (±424.7)</t>
@@ -1087,16 +1087,16 @@
     <t>528.2 (±84.1)</t>
   </si>
   <si>
-    <t>512.0 (±65.4)</t>
-  </si>
-  <si>
-    <t>812.2 (±62.2)</t>
+    <t>513.0 (±65.4)</t>
+  </si>
+  <si>
+    <t>1054.2 (±62.2)</t>
   </si>
   <si>
     <t>20102.2 (±1323.0)</t>
   </si>
   <si>
-    <t>105.0 (±246.9)</t>
+    <t>116.8 (±246.7)</t>
   </si>
   <si>
     <t>80363.6 (±5560.1)</t>
@@ -1111,16 +1111,16 @@
     <t>9944.4 (±1602.9)</t>
   </si>
   <si>
-    <t>6438.0 (±544.6)</t>
-  </si>
-  <si>
-    <t>3977.2 (±248.8)</t>
-  </si>
-  <si>
-    <t>78247.0 (±1656.4)</t>
-  </si>
-  <si>
-    <t>7684.2 (±1202.2)</t>
+    <t>6442.0 (±544.6)</t>
+  </si>
+  <si>
+    <t>3979.2 (±248.8)</t>
+  </si>
+  <si>
+    <t>78250.0 (±1656.4)</t>
+  </si>
+  <si>
+    <t>7685.2 (±1202.2)</t>
   </si>
   <si>
     <t>10196.2 (±700.5)</t>
@@ -1138,16 +1138,16 @@
     <t>12.7% (±2.2%)</t>
   </si>
   <si>
-    <t>12.0% (±3.4%)</t>
-  </si>
-  <si>
-    <t>21.2% (±1.7%)</t>
+    <t>7.2% (±3.3%)</t>
+  </si>
+  <si>
+    <t>21.3% (±1.8%)</t>
   </si>
   <si>
     <t>3.8% (±1.2%)</t>
   </si>
   <si>
-    <t>6.2% (±0.9%)</t>
+    <t>5.1% (±1.0%)</t>
   </si>
   <si>
     <t>5.0% (±0.8%)</t>
@@ -1159,13 +1159,13 @@
     <t>8.6% (±1.2%)</t>
   </si>
   <si>
-    <t>12.8% (±1.7%)</t>
+    <t>12.8% (±1.6%)</t>
   </si>
   <si>
     <t>0.9% (±2.2%)</t>
   </si>
   <si>
-    <t>20.9% (±1.9%)</t>
+    <t>20.9% (±1.8%)</t>
   </si>
   <si>
     <t>3.8% (±1.8%)</t>
@@ -1180,10 +1180,10 @@
     <t>15.5% (±2.8%)</t>
   </si>
   <si>
-    <t>18.1% (±2.7%)</t>
-  </si>
-  <si>
-    <t>15.3% (±1.3%)</t>
+    <t>18.2% (±2.7%)</t>
+  </si>
+  <si>
+    <t>19.9% (±1.4%)</t>
   </si>
   <si>
     <t>16.4% (±1.3%)</t>
@@ -1231,34 +1231,34 @@
     <t>134.3(±20.7)</t>
   </si>
   <si>
-    <t>63.9(±16.9)</t>
-  </si>
-  <si>
-    <t>181.0(±12.6)</t>
-  </si>
-  <si>
-    <t>28.5(±8.5)</t>
-  </si>
-  <si>
-    <t>59.4(±8.8)</t>
+    <t>38.3(±16.9)</t>
+  </si>
+  <si>
+    <t>181.1(±12.7)</t>
+  </si>
+  <si>
+    <t>28.5(±8.6)</t>
+  </si>
+  <si>
+    <t>48.2(±8.8)</t>
   </si>
   <si>
     <t>40.2(±6.1)</t>
   </si>
   <si>
-    <t>106.6(±5.1)</t>
+    <t>106.6(±5.2)</t>
   </si>
   <si>
     <t>79.4(±9.7)</t>
   </si>
   <si>
-    <t>137.9(±15.8)</t>
+    <t>138.8(±15.8)</t>
   </si>
   <si>
     <t>4.4(±11.2)</t>
   </si>
   <si>
-    <t>183.6(±13.8)</t>
+    <t>183.7(±13.8)</t>
   </si>
   <si>
     <t>47.2(±22.3)</t>
@@ -1273,16 +1273,16 @@
     <t>84.4(±13.4)</t>
   </si>
   <si>
-    <t>99.5(±12.7)</t>
-  </si>
-  <si>
-    <t>130.6(±10.0)</t>
+    <t>99.7(±12.7)</t>
+  </si>
+  <si>
+    <t>169.5(±10.0)</t>
   </si>
   <si>
     <t>115.5(±7.6)</t>
   </si>
   <si>
-    <t>2.0(±4.6)</t>
+    <t>2.2(±4.6)</t>
   </si>
   <si>
     <t>211.7(±14.7)</t>
@@ -1297,16 +1297,16 @@
     <t>143.6(±23.1)</t>
   </si>
   <si>
-    <t>118.0(±9.9)</t>
-  </si>
-  <si>
-    <t>189.8(±11.8)</t>
+    <t>118.0(±10.0)</t>
+  </si>
+  <si>
+    <t>189.9(±11.8)</t>
   </si>
   <si>
     <t>165.3(±3.5)</t>
   </si>
   <si>
-    <t>74.4(±11.6)</t>
+    <t>74.4(±11.7)</t>
   </si>
   <si>
     <t>118.5(±8.1)</t>
@@ -1877,10 +1877,10 @@
         <v>615.7</v>
       </c>
       <c r="M3">
-        <v>44671.1</v>
+        <v>44671.10000000001</v>
       </c>
       <c r="N3">
-        <v>45902.49999999999</v>
+        <v>45902.5</v>
       </c>
       <c r="O3">
         <v>9798.200000000001</v>
@@ -1939,7 +1939,7 @@
         <v>40969</v>
       </c>
       <c r="H4">
-        <v>49836</v>
+        <v>49840</v>
       </c>
       <c r="I4">
         <v>42598.6</v>
@@ -1960,7 +1960,7 @@
         <v>43359</v>
       </c>
       <c r="O4">
-        <v>7237.4</v>
+        <v>7241.4</v>
       </c>
       <c r="P4">
         <v>760.4</v>
@@ -1984,7 +1984,7 @@
         <v>3581836</v>
       </c>
       <c r="W4">
-        <v>202.1</v>
+        <v>202.2</v>
       </c>
       <c r="X4">
         <v>21.2</v>
@@ -2093,7 +2093,7 @@
         <v>2292</v>
       </c>
       <c r="H6">
-        <v>2468</v>
+        <v>2374</v>
       </c>
       <c r="I6">
         <v>2227</v>
@@ -2111,19 +2111,19 @@
         <v>2160.3</v>
       </c>
       <c r="N6">
-        <v>2293.699999999999</v>
+        <v>2293.7</v>
       </c>
       <c r="O6">
-        <v>241</v>
+        <v>147</v>
       </c>
       <c r="P6">
         <v>66.7</v>
       </c>
       <c r="Q6">
-        <v>10.8</v>
+        <v>6.6</v>
       </c>
       <c r="R6">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="S6" t="s">
         <v>61</v>
@@ -2138,7 +2138,7 @@
         <v>453534</v>
       </c>
       <c r="W6">
-        <v>53.1</v>
+        <v>32.4</v>
       </c>
       <c r="X6">
         <v>14.7</v>
@@ -2170,10 +2170,10 @@
         <v>44206</v>
       </c>
       <c r="H7">
-        <v>53455</v>
+        <v>53463</v>
       </c>
       <c r="I7">
-        <v>44723.39999999999</v>
+        <v>44723.4</v>
       </c>
       <c r="J7">
         <v>856.3</v>
@@ -2188,10 +2188,10 @@
         <v>43972.8</v>
       </c>
       <c r="N7">
-        <v>45473.99999999999</v>
+        <v>45474</v>
       </c>
       <c r="O7">
-        <v>8731.6</v>
+        <v>8739.6</v>
       </c>
       <c r="P7">
         <v>750.6</v>
@@ -2215,10 +2215,10 @@
         <v>5421943</v>
       </c>
       <c r="W7">
-        <v>161</v>
+        <v>161.2</v>
       </c>
       <c r="X7">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="Y7" t="s">
         <v>155</v>
@@ -2247,7 +2247,7 @@
         <v>21354</v>
       </c>
       <c r="H8">
-        <v>22340</v>
+        <v>22341</v>
       </c>
       <c r="I8">
         <v>21873.2</v>
@@ -2262,13 +2262,13 @@
         <v>181.6</v>
       </c>
       <c r="M8">
-        <v>21691.60000000001</v>
+        <v>21691.6</v>
       </c>
       <c r="N8">
         <v>22054.8</v>
       </c>
       <c r="O8">
-        <v>466.8</v>
+        <v>467.8</v>
       </c>
       <c r="P8">
         <v>181.6</v>
@@ -2324,10 +2324,10 @@
         <v>6532</v>
       </c>
       <c r="H9">
-        <v>7093</v>
+        <v>7018</v>
       </c>
       <c r="I9">
-        <v>6643.799999999997</v>
+        <v>6643.8</v>
       </c>
       <c r="J9">
         <v>76.8</v>
@@ -2339,22 +2339,22 @@
         <v>67.3</v>
       </c>
       <c r="M9">
-        <v>6576.499999999997</v>
+        <v>6576.5</v>
       </c>
       <c r="N9">
-        <v>6711.099999999998</v>
+        <v>6711.1</v>
       </c>
       <c r="O9">
-        <v>449.2</v>
+        <v>374.2</v>
       </c>
       <c r="P9">
         <v>67.3</v>
       </c>
       <c r="Q9">
-        <v>6.8</v>
+        <v>5.6</v>
       </c>
       <c r="R9">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="S9" t="s">
         <v>64</v>
@@ -2369,7 +2369,7 @@
         <v>699699</v>
       </c>
       <c r="W9">
-        <v>64.2</v>
+        <v>53.5</v>
       </c>
       <c r="X9">
         <v>9.6</v>
@@ -2404,7 +2404,7 @@
         <v>23140</v>
       </c>
       <c r="I10">
-        <v>22185.59999999999</v>
+        <v>22185.6</v>
       </c>
       <c r="J10">
         <v>249</v>
@@ -2419,7 +2419,7 @@
         <v>21967.3</v>
       </c>
       <c r="N10">
-        <v>22403.89999999999</v>
+        <v>22403.9</v>
       </c>
       <c r="O10">
         <v>954.4</v>
@@ -2478,7 +2478,7 @@
         <v>244549</v>
       </c>
       <c r="H11">
-        <v>281296</v>
+        <v>281317</v>
       </c>
       <c r="I11">
         <v>246071.4</v>
@@ -2499,7 +2499,7 @@
         <v>248249.6</v>
       </c>
       <c r="O11">
-        <v>35224.6</v>
+        <v>35245.6</v>
       </c>
       <c r="P11">
         <v>2178.2</v>
@@ -2526,7 +2526,7 @@
         <v>101.3</v>
       </c>
       <c r="X11">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Y11" t="s">
         <v>159</v>
@@ -2558,7 +2558,7 @@
         <v>53328</v>
       </c>
       <c r="I12">
-        <v>48737.80000000001</v>
+        <v>48737.8</v>
       </c>
       <c r="J12">
         <v>721.3</v>
@@ -2573,7 +2573,7 @@
         <v>48105.60000000001</v>
       </c>
       <c r="N12">
-        <v>49370.00000000001</v>
+        <v>49370</v>
       </c>
       <c r="O12">
         <v>4590.2</v>
@@ -2632,10 +2632,10 @@
         <v>51939</v>
       </c>
       <c r="H13">
-        <v>60965</v>
+        <v>60993</v>
       </c>
       <c r="I13">
-        <v>53852.20000000001</v>
+        <v>53852.2</v>
       </c>
       <c r="J13">
         <v>996.8</v>
@@ -2647,19 +2647,19 @@
         <v>873.7</v>
       </c>
       <c r="M13">
-        <v>52978.50000000001</v>
+        <v>52978.5</v>
       </c>
       <c r="N13">
-        <v>54725.90000000001</v>
+        <v>54725.89999999999</v>
       </c>
       <c r="O13">
-        <v>7112.8</v>
+        <v>7140.8</v>
       </c>
       <c r="P13">
         <v>873.7</v>
       </c>
       <c r="Q13">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="R13">
         <v>1.8</v>
@@ -2677,10 +2677,10 @@
         <v>5088736</v>
       </c>
       <c r="W13">
-        <v>139.8</v>
+        <v>140.3</v>
       </c>
       <c r="X13">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="Y13" t="s">
         <v>161</v>
@@ -2712,7 +2712,7 @@
         <v>914</v>
       </c>
       <c r="I14">
-        <v>919.1999999999999</v>
+        <v>919.2</v>
       </c>
       <c r="J14">
         <v>20.4</v>
@@ -2724,10 +2724,10 @@
         <v>17.9</v>
       </c>
       <c r="M14">
-        <v>901.3</v>
+        <v>901.3000000000001</v>
       </c>
       <c r="N14">
-        <v>937.0999999999999</v>
+        <v>937.1</v>
       </c>
       <c r="O14">
         <v>-5.2</v>
@@ -2786,7 +2786,7 @@
         <v>263479</v>
       </c>
       <c r="H15">
-        <v>323996</v>
+        <v>324007</v>
       </c>
       <c r="I15">
         <v>271893.6</v>
@@ -2807,7 +2807,7 @@
         <v>276895.7</v>
       </c>
       <c r="O15">
-        <v>52102.4</v>
+        <v>52113.4</v>
       </c>
       <c r="P15">
         <v>5002.1</v>
@@ -2831,10 +2831,10 @@
         <v>30591392</v>
       </c>
       <c r="W15">
-        <v>170.3</v>
+        <v>170.4</v>
       </c>
       <c r="X15">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="Y15" t="s">
         <v>163</v>
@@ -3035,7 +3035,7 @@
         <v>16286</v>
       </c>
       <c r="N18">
-        <v>17319.59999999999</v>
+        <v>17319.6</v>
       </c>
       <c r="O18">
         <v>2204.2</v>
@@ -3097,7 +3097,7 @@
         <v>1911</v>
       </c>
       <c r="I19">
-        <v>1669.799999999999</v>
+        <v>1669.8</v>
       </c>
       <c r="J19">
         <v>55.6</v>
@@ -3109,10 +3109,10 @@
         <v>48.7</v>
       </c>
       <c r="M19">
-        <v>1621.099999999999</v>
+        <v>1621.1</v>
       </c>
       <c r="N19">
-        <v>1718.499999999999</v>
+        <v>1718.5</v>
       </c>
       <c r="O19">
         <v>241.2</v>
@@ -3248,7 +3248,7 @@
         <v>2445</v>
       </c>
       <c r="H21">
-        <v>2814</v>
+        <v>2926</v>
       </c>
       <c r="I21">
         <v>2529.2</v>
@@ -3269,16 +3269,16 @@
         <v>2579.8</v>
       </c>
       <c r="O21">
-        <v>284.8</v>
+        <v>396.8</v>
       </c>
       <c r="P21">
         <v>50.6</v>
       </c>
       <c r="Q21">
-        <v>11.3</v>
+        <v>15.7</v>
       </c>
       <c r="R21">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S21" t="s">
         <v>76</v>
@@ -3293,7 +3293,7 @@
         <v>314318</v>
       </c>
       <c r="W21">
-        <v>90.59999999999999</v>
+        <v>126.2</v>
       </c>
       <c r="X21">
         <v>16.1</v>
@@ -3328,7 +3328,7 @@
         <v>71202</v>
       </c>
       <c r="I22">
-        <v>62956.99999999999</v>
+        <v>62957</v>
       </c>
       <c r="J22">
         <v>570.2</v>
@@ -3340,7 +3340,7 @@
         <v>499.8</v>
       </c>
       <c r="M22">
-        <v>62457.19999999999</v>
+        <v>62457.2</v>
       </c>
       <c r="N22">
         <v>63456.8</v>
@@ -3402,7 +3402,7 @@
         <v>16733</v>
       </c>
       <c r="H23">
-        <v>16956</v>
+        <v>16959</v>
       </c>
       <c r="I23">
         <v>17159.4</v>
@@ -3423,7 +3423,7 @@
         <v>17294.4</v>
       </c>
       <c r="O23">
-        <v>-203.4</v>
+        <v>-200.4</v>
       </c>
       <c r="P23">
         <v>135</v>
@@ -3432,7 +3432,7 @@
         <v>-1.2</v>
       </c>
       <c r="R23">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="S23" t="s">
         <v>78</v>
@@ -3447,7 +3447,7 @@
         <v>2661018</v>
       </c>
       <c r="W23">
-        <v>-7.6</v>
+        <v>-7.5</v>
       </c>
       <c r="X23">
         <v>5</v>
@@ -3559,7 +3559,7 @@
         <v>51624</v>
       </c>
       <c r="I25">
-        <v>43911.99999999999</v>
+        <v>43912</v>
       </c>
       <c r="J25">
         <v>856.5</v>
@@ -3571,10 +3571,10 @@
         <v>750.8</v>
       </c>
       <c r="M25">
-        <v>43161.19999999998</v>
+        <v>43161.2</v>
       </c>
       <c r="N25">
-        <v>44662.79999999999</v>
+        <v>44662.8</v>
       </c>
       <c r="O25">
         <v>7712</v>
@@ -3713,7 +3713,7 @@
         <v>44332</v>
       </c>
       <c r="I27">
-        <v>41102.19999999999</v>
+        <v>41102.2</v>
       </c>
       <c r="J27">
         <v>926.1</v>
@@ -3728,7 +3728,7 @@
         <v>40290.39999999999</v>
       </c>
       <c r="N27">
-        <v>41913.99999999999</v>
+        <v>41914</v>
       </c>
       <c r="O27">
         <v>3229.8</v>
@@ -3787,7 +3787,7 @@
         <v>20431</v>
       </c>
       <c r="H28">
-        <v>24292</v>
+        <v>24295</v>
       </c>
       <c r="I28">
         <v>21278</v>
@@ -3808,7 +3808,7 @@
         <v>21586</v>
       </c>
       <c r="O28">
-        <v>3014</v>
+        <v>3017</v>
       </c>
       <c r="P28">
         <v>308</v>
@@ -3832,7 +3832,7 @@
         <v>2792523</v>
       </c>
       <c r="W28">
-        <v>107.9</v>
+        <v>108</v>
       </c>
       <c r="X28">
         <v>11.1</v>
@@ -3864,10 +3864,10 @@
         <v>8226</v>
       </c>
       <c r="H29">
-        <v>10401</v>
+        <v>10402</v>
       </c>
       <c r="I29">
-        <v>8285.400000000001</v>
+        <v>8285.4</v>
       </c>
       <c r="J29">
         <v>155.6</v>
@@ -3879,13 +3879,13 @@
         <v>136.4</v>
       </c>
       <c r="M29">
-        <v>8149.000000000002</v>
+        <v>8149</v>
       </c>
       <c r="N29">
-        <v>8421.800000000001</v>
+        <v>8421.799999999999</v>
       </c>
       <c r="O29">
-        <v>2115.6</v>
+        <v>2116.6</v>
       </c>
       <c r="P29">
         <v>136.4</v>
@@ -3909,7 +3909,7 @@
         <v>1044795</v>
       </c>
       <c r="W29">
-        <v>202.5</v>
+        <v>202.6</v>
       </c>
       <c r="X29">
         <v>13</v>
@@ -3941,7 +3941,7 @@
         <v>161219</v>
       </c>
       <c r="H30">
-        <v>205018</v>
+        <v>205019</v>
       </c>
       <c r="I30">
         <v>165789</v>
@@ -3962,7 +3962,7 @@
         <v>166584.9</v>
       </c>
       <c r="O30">
-        <v>39229</v>
+        <v>39230</v>
       </c>
       <c r="P30">
         <v>795.9</v>
@@ -3989,7 +3989,7 @@
         <v>162.6</v>
       </c>
       <c r="X30">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Y30" t="s">
         <v>178</v>
@@ -4018,7 +4018,7 @@
         <v>35440</v>
       </c>
       <c r="H31">
-        <v>40434</v>
+        <v>40435</v>
       </c>
       <c r="I31">
         <v>37398.2</v>
@@ -4033,13 +4033,13 @@
         <v>631.8</v>
       </c>
       <c r="M31">
-        <v>36766.4</v>
+        <v>36766.39999999999</v>
       </c>
       <c r="N31">
-        <v>38030.00000000001</v>
+        <v>38030</v>
       </c>
       <c r="O31">
-        <v>3035.8</v>
+        <v>3036.8</v>
       </c>
       <c r="P31">
         <v>631.8</v>
@@ -4265,7 +4265,7 @@
         <v>37503</v>
       </c>
       <c r="I2">
-        <v>31953.40000000001</v>
+        <v>31953.4</v>
       </c>
       <c r="J2">
         <v>625.6</v>
@@ -4280,7 +4280,7 @@
         <v>31405</v>
       </c>
       <c r="N2">
-        <v>32501.80000000001</v>
+        <v>32501.8</v>
       </c>
       <c r="O2">
         <v>5549.6</v>
@@ -4339,7 +4339,7 @@
         <v>42612</v>
       </c>
       <c r="H3">
-        <v>52829</v>
+        <v>52828</v>
       </c>
       <c r="I3">
         <v>43789</v>
@@ -4360,7 +4360,7 @@
         <v>44124.8</v>
       </c>
       <c r="O3">
-        <v>9040</v>
+        <v>9039</v>
       </c>
       <c r="P3">
         <v>335.8</v>
@@ -4416,7 +4416,7 @@
         <v>44364</v>
       </c>
       <c r="H4">
-        <v>56323</v>
+        <v>56324</v>
       </c>
       <c r="I4">
         <v>46185</v>
@@ -4437,7 +4437,7 @@
         <v>46961</v>
       </c>
       <c r="O4">
-        <v>10138</v>
+        <v>10139</v>
       </c>
       <c r="P4">
         <v>776</v>
@@ -4570,7 +4570,7 @@
         <v>2589</v>
       </c>
       <c r="H6">
-        <v>2817</v>
+        <v>2684</v>
       </c>
       <c r="I6">
         <v>2491</v>
@@ -4591,16 +4591,16 @@
         <v>2576</v>
       </c>
       <c r="O6">
-        <v>326</v>
+        <v>193</v>
       </c>
       <c r="P6">
         <v>85</v>
       </c>
       <c r="Q6">
-        <v>13.1</v>
+        <v>7.7</v>
       </c>
       <c r="R6">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="S6" t="s">
         <v>186</v>
@@ -4615,7 +4615,7 @@
         <v>434471</v>
       </c>
       <c r="W6">
-        <v>75</v>
+        <v>44.4</v>
       </c>
       <c r="X6">
         <v>19.6</v>
@@ -4647,7 +4647,7 @@
         <v>46287</v>
       </c>
       <c r="H7">
-        <v>57017</v>
+        <v>57023</v>
       </c>
       <c r="I7">
         <v>46392.8</v>
@@ -4668,7 +4668,7 @@
         <v>47035.8</v>
       </c>
       <c r="O7">
-        <v>10624.2</v>
+        <v>10630.2</v>
       </c>
       <c r="P7">
         <v>643</v>
@@ -4692,7 +4692,7 @@
         <v>5271996</v>
       </c>
       <c r="W7">
-        <v>201.5</v>
+        <v>201.6</v>
       </c>
       <c r="X7">
         <v>12.2</v>
@@ -4801,7 +4801,7 @@
         <v>5784</v>
       </c>
       <c r="H9">
-        <v>6339</v>
+        <v>6266</v>
       </c>
       <c r="I9">
         <v>5999</v>
@@ -4822,13 +4822,13 @@
         <v>6067.8</v>
       </c>
       <c r="O9">
-        <v>340</v>
+        <v>267</v>
       </c>
       <c r="P9">
         <v>68.8</v>
       </c>
       <c r="Q9">
-        <v>5.7</v>
+        <v>4.5</v>
       </c>
       <c r="R9">
         <v>1.2</v>
@@ -4846,7 +4846,7 @@
         <v>629277</v>
       </c>
       <c r="W9">
-        <v>54</v>
+        <v>42.4</v>
       </c>
       <c r="X9">
         <v>11</v>
@@ -4955,7 +4955,7 @@
         <v>243172</v>
       </c>
       <c r="H11">
-        <v>283140</v>
+        <v>283178</v>
       </c>
       <c r="I11">
         <v>246627.4</v>
@@ -4976,7 +4976,7 @@
         <v>248114.2</v>
       </c>
       <c r="O11">
-        <v>36512.6</v>
+        <v>36550.6</v>
       </c>
       <c r="P11">
         <v>1486.8</v>
@@ -5000,10 +5000,10 @@
         <v>32532669</v>
       </c>
       <c r="W11">
-        <v>112.2</v>
+        <v>112.4</v>
       </c>
       <c r="X11">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y11" t="s">
         <v>284</v>
@@ -5035,7 +5035,7 @@
         <v>54691</v>
       </c>
       <c r="I12">
-        <v>50770.99999999999</v>
+        <v>50771</v>
       </c>
       <c r="J12">
         <v>514</v>
@@ -5047,10 +5047,10 @@
         <v>450.5</v>
       </c>
       <c r="M12">
-        <v>50320.49999999999</v>
+        <v>50320.5</v>
       </c>
       <c r="N12">
-        <v>51221.49999999999</v>
+        <v>51221.5</v>
       </c>
       <c r="O12">
         <v>3920</v>
@@ -5109,10 +5109,10 @@
         <v>49443</v>
       </c>
       <c r="H13">
-        <v>58114</v>
+        <v>58169</v>
       </c>
       <c r="I13">
-        <v>51753.00000000001</v>
+        <v>51753</v>
       </c>
       <c r="J13">
         <v>846.4</v>
@@ -5124,19 +5124,19 @@
         <v>741.9</v>
       </c>
       <c r="M13">
-        <v>51011.10000000001</v>
+        <v>51011.1</v>
       </c>
       <c r="N13">
-        <v>52494.90000000002</v>
+        <v>52494.9</v>
       </c>
       <c r="O13">
-        <v>6361</v>
+        <v>6416</v>
       </c>
       <c r="P13">
         <v>741.9</v>
       </c>
       <c r="Q13">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="R13">
         <v>1.6</v>
@@ -5154,7 +5154,7 @@
         <v>4680790</v>
       </c>
       <c r="W13">
-        <v>135.9</v>
+        <v>137.1</v>
       </c>
       <c r="X13">
         <v>15.8</v>
@@ -5189,7 +5189,7 @@
         <v>980</v>
       </c>
       <c r="I14">
-        <v>958.8000000000001</v>
+        <v>958.8</v>
       </c>
       <c r="J14">
         <v>29.4</v>
@@ -5201,10 +5201,10 @@
         <v>25.8</v>
       </c>
       <c r="M14">
-        <v>933.0000000000001</v>
+        <v>933</v>
       </c>
       <c r="N14">
-        <v>984.6</v>
+        <v>984.5999999999999</v>
       </c>
       <c r="O14">
         <v>21.2</v>
@@ -5263,7 +5263,7 @@
         <v>244383</v>
       </c>
       <c r="H15">
-        <v>309196</v>
+        <v>309215</v>
       </c>
       <c r="I15">
         <v>251770.4</v>
@@ -5284,7 +5284,7 @@
         <v>255004.9</v>
       </c>
       <c r="O15">
-        <v>57425.6</v>
+        <v>57444.6</v>
       </c>
       <c r="P15">
         <v>3234.5</v>
@@ -5311,7 +5311,7 @@
         <v>197.7</v>
       </c>
       <c r="X15">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="Y15" t="s">
         <v>288</v>
@@ -5497,7 +5497,7 @@
         <v>18278</v>
       </c>
       <c r="I18">
-        <v>16104.59999999999</v>
+        <v>16104.6</v>
       </c>
       <c r="J18">
         <v>889</v>
@@ -5509,7 +5509,7 @@
         <v>779.2</v>
       </c>
       <c r="M18">
-        <v>15325.39999999999</v>
+        <v>15325.4</v>
       </c>
       <c r="N18">
         <v>16883.8</v>
@@ -5648,7 +5648,7 @@
         <v>1467</v>
       </c>
       <c r="H20">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="I20">
         <v>1436.6</v>
@@ -5669,16 +5669,16 @@
         <v>1490.8</v>
       </c>
       <c r="O20">
-        <v>271.4</v>
+        <v>272.4</v>
       </c>
       <c r="P20">
         <v>54.2</v>
       </c>
       <c r="Q20">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="R20">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="S20" t="s">
         <v>200</v>
@@ -5693,7 +5693,7 @@
         <v>265762</v>
       </c>
       <c r="W20">
-        <v>102.1</v>
+        <v>102.5</v>
       </c>
       <c r="X20">
         <v>20.4</v>
@@ -5725,10 +5725,10 @@
         <v>2778</v>
       </c>
       <c r="H21">
-        <v>3293</v>
+        <v>3423</v>
       </c>
       <c r="I21">
-        <v>2765.599999999999</v>
+        <v>2765.6</v>
       </c>
       <c r="J21">
         <v>60.2</v>
@@ -5740,19 +5740,19 @@
         <v>52.8</v>
       </c>
       <c r="M21">
-        <v>2712.799999999999</v>
+        <v>2712.8</v>
       </c>
       <c r="N21">
-        <v>2818.399999999999</v>
+        <v>2818.4</v>
       </c>
       <c r="O21">
-        <v>527.4</v>
+        <v>657.4</v>
       </c>
       <c r="P21">
         <v>52.8</v>
       </c>
       <c r="Q21">
-        <v>19.1</v>
+        <v>23.8</v>
       </c>
       <c r="R21">
         <v>2.3</v>
@@ -5770,7 +5770,7 @@
         <v>307555</v>
       </c>
       <c r="W21">
-        <v>171.5</v>
+        <v>213.8</v>
       </c>
       <c r="X21">
         <v>17.1</v>
@@ -5817,10 +5817,10 @@
         <v>856.3</v>
       </c>
       <c r="M22">
-        <v>59043.49999999999</v>
+        <v>59043.5</v>
       </c>
       <c r="N22">
-        <v>60756.1</v>
+        <v>60756.10000000001</v>
       </c>
       <c r="O22">
         <v>11857.2</v>
@@ -5873,43 +5873,43 @@
         <v>15668</v>
       </c>
       <c r="F23">
-        <v>15923</v>
+        <v>15926</v>
       </c>
       <c r="G23">
-        <v>16133</v>
+        <v>16136</v>
       </c>
       <c r="H23">
-        <v>16580</v>
+        <v>16590</v>
       </c>
       <c r="I23">
-        <v>16271.6</v>
+        <v>16272.8</v>
       </c>
       <c r="J23">
-        <v>192.6</v>
+        <v>193.2</v>
       </c>
       <c r="K23">
         <v>1.96</v>
       </c>
       <c r="L23">
-        <v>168.8</v>
+        <v>169.3</v>
       </c>
       <c r="M23">
-        <v>16102.8</v>
+        <v>16103.5</v>
       </c>
       <c r="N23">
-        <v>16440.40000000001</v>
+        <v>16442.1</v>
       </c>
       <c r="O23">
-        <v>308.4</v>
+        <v>317.2</v>
       </c>
       <c r="P23">
-        <v>168.8</v>
+        <v>169.3</v>
       </c>
       <c r="Q23">
         <v>1.9</v>
       </c>
       <c r="R23">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="S23" t="s">
         <v>203</v>
@@ -5924,10 +5924,10 @@
         <v>2706562</v>
       </c>
       <c r="W23">
-        <v>11.4</v>
+        <v>11.7</v>
       </c>
       <c r="X23">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Y23" t="s">
         <v>296</v>
@@ -6036,7 +6036,7 @@
         <v>51086</v>
       </c>
       <c r="I25">
-        <v>44545.99999999999</v>
+        <v>44546</v>
       </c>
       <c r="J25">
         <v>827.4</v>
@@ -6048,10 +6048,10 @@
         <v>725.2</v>
       </c>
       <c r="M25">
-        <v>43820.79999999999</v>
+        <v>43820.8</v>
       </c>
       <c r="N25">
-        <v>45271.19999999998</v>
+        <v>45271.2</v>
       </c>
       <c r="O25">
         <v>6540</v>
@@ -6190,7 +6190,7 @@
         <v>48636</v>
       </c>
       <c r="I27">
-        <v>41921.39999999999</v>
+        <v>41921.4</v>
       </c>
       <c r="J27">
         <v>910.3</v>
@@ -6202,7 +6202,7 @@
         <v>797.9</v>
       </c>
       <c r="M27">
-        <v>41123.49999999999</v>
+        <v>41123.5</v>
       </c>
       <c r="N27">
         <v>42719.3</v>
@@ -6264,7 +6264,7 @@
         <v>21897</v>
       </c>
       <c r="H28">
-        <v>25869</v>
+        <v>25870</v>
       </c>
       <c r="I28">
         <v>22445</v>
@@ -6282,10 +6282,10 @@
         <v>22187.1</v>
       </c>
       <c r="N28">
-        <v>22702.90000000001</v>
+        <v>22702.9</v>
       </c>
       <c r="O28">
-        <v>3424</v>
+        <v>3425</v>
       </c>
       <c r="P28">
         <v>257.9</v>
@@ -6294,7 +6294,7 @@
         <v>15.3</v>
       </c>
       <c r="R28">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="S28" t="s">
         <v>208</v>
@@ -6312,7 +6312,7 @@
         <v>128.5</v>
       </c>
       <c r="X28">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="Y28" t="s">
         <v>301</v>
@@ -6341,7 +6341,7 @@
         <v>7959</v>
       </c>
       <c r="H29">
-        <v>9971</v>
+        <v>9972</v>
       </c>
       <c r="I29">
         <v>8109.4</v>
@@ -6362,7 +6362,7 @@
         <v>8230.1</v>
       </c>
       <c r="O29">
-        <v>1861.6</v>
+        <v>1862.6</v>
       </c>
       <c r="P29">
         <v>120.7</v>
@@ -6386,7 +6386,7 @@
         <v>1051066</v>
       </c>
       <c r="W29">
-        <v>177.1</v>
+        <v>177.2</v>
       </c>
       <c r="X29">
         <v>11.5</v>
@@ -6418,10 +6418,10 @@
         <v>166777</v>
       </c>
       <c r="H30">
-        <v>210161</v>
+        <v>210163</v>
       </c>
       <c r="I30">
-        <v>171142.9999999999</v>
+        <v>171143</v>
       </c>
       <c r="J30">
         <v>1024.7</v>
@@ -6433,13 +6433,13 @@
         <v>898.2</v>
       </c>
       <c r="M30">
-        <v>170244.7999999999</v>
+        <v>170244.8</v>
       </c>
       <c r="N30">
         <v>172041.2</v>
       </c>
       <c r="O30">
-        <v>39018</v>
+        <v>39020</v>
       </c>
       <c r="P30">
         <v>898.2</v>
@@ -6498,7 +6498,7 @@
         <v>40286</v>
       </c>
       <c r="I31">
-        <v>35637.60000000001</v>
+        <v>35637.6</v>
       </c>
       <c r="J31">
         <v>666.6</v>
@@ -6513,7 +6513,7 @@
         <v>35053.3</v>
       </c>
       <c r="N31">
-        <v>36221.90000000001</v>
+        <v>36221.9</v>
       </c>
       <c r="O31">
         <v>4648.4</v>
@@ -6742,7 +6742,7 @@
         <v>75824</v>
       </c>
       <c r="I2">
-        <v>66270.80000000002</v>
+        <v>66270.8</v>
       </c>
       <c r="J2">
         <v>1031.8</v>
@@ -6754,10 +6754,10 @@
         <v>904.4</v>
       </c>
       <c r="M2">
-        <v>65366.40000000002</v>
+        <v>65366.4</v>
       </c>
       <c r="N2">
-        <v>67175.20000000001</v>
+        <v>67175.2</v>
       </c>
       <c r="O2">
         <v>9553.200000000001</v>
@@ -6816,10 +6816,10 @@
         <v>86854</v>
       </c>
       <c r="H3">
-        <v>107914</v>
+        <v>107913</v>
       </c>
       <c r="I3">
-        <v>89075.80000000003</v>
+        <v>89075.8</v>
       </c>
       <c r="J3">
         <v>1054.1</v>
@@ -6831,13 +6831,13 @@
         <v>924</v>
       </c>
       <c r="M3">
-        <v>88151.80000000003</v>
+        <v>88151.8</v>
       </c>
       <c r="N3">
-        <v>89999.80000000003</v>
+        <v>89999.8</v>
       </c>
       <c r="O3">
-        <v>18838.2</v>
+        <v>18837.2</v>
       </c>
       <c r="P3">
         <v>924</v>
@@ -6893,7 +6893,7 @@
         <v>85333</v>
       </c>
       <c r="H4">
-        <v>106159</v>
+        <v>106164</v>
       </c>
       <c r="I4">
         <v>88783.60000000001</v>
@@ -6914,7 +6914,7 @@
         <v>90300.40000000001</v>
       </c>
       <c r="O4">
-        <v>17375.4</v>
+        <v>17380.4</v>
       </c>
       <c r="P4">
         <v>1516.8</v>
@@ -6973,7 +6973,7 @@
         <v>48374</v>
       </c>
       <c r="I5">
-        <v>42923.00000000001</v>
+        <v>42923</v>
       </c>
       <c r="J5">
         <v>957.6</v>
@@ -6985,10 +6985,10 @@
         <v>839.4</v>
       </c>
       <c r="M5">
-        <v>42083.60000000001</v>
+        <v>42083.6</v>
       </c>
       <c r="N5">
-        <v>43762.40000000001</v>
+        <v>43762.4</v>
       </c>
       <c r="O5">
         <v>5451</v>
@@ -7047,10 +7047,10 @@
         <v>4881</v>
       </c>
       <c r="H6">
-        <v>5285</v>
+        <v>5058</v>
       </c>
       <c r="I6">
-        <v>4718.000000000001</v>
+        <v>4718</v>
       </c>
       <c r="J6">
         <v>171.6</v>
@@ -7062,22 +7062,22 @@
         <v>150.4</v>
       </c>
       <c r="M6">
-        <v>4567.600000000001</v>
+        <v>4567.6</v>
       </c>
       <c r="N6">
-        <v>4868.400000000001</v>
+        <v>4868.4</v>
       </c>
       <c r="O6">
-        <v>567</v>
+        <v>340</v>
       </c>
       <c r="P6">
         <v>150.4</v>
       </c>
       <c r="Q6">
-        <v>12</v>
+        <v>7.2</v>
       </c>
       <c r="R6">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="S6" t="s">
         <v>311</v>
@@ -7092,7 +7092,7 @@
         <v>888005</v>
       </c>
       <c r="W6">
-        <v>63.9</v>
+        <v>38.3</v>
       </c>
       <c r="X6">
         <v>16.9</v>
@@ -7124,10 +7124,10 @@
         <v>90493</v>
       </c>
       <c r="H7">
-        <v>110472</v>
+        <v>110486</v>
       </c>
       <c r="I7">
-        <v>91116.20000000003</v>
+        <v>91116.2</v>
       </c>
       <c r="J7">
         <v>1540.7</v>
@@ -7139,22 +7139,22 @@
         <v>1350.5</v>
       </c>
       <c r="M7">
-        <v>89765.70000000003</v>
+        <v>89765.7</v>
       </c>
       <c r="N7">
-        <v>92466.70000000003</v>
+        <v>92466.7</v>
       </c>
       <c r="O7">
-        <v>19355.8</v>
+        <v>19369.8</v>
       </c>
       <c r="P7">
         <v>1350.5</v>
       </c>
       <c r="Q7">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="R7">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S7" t="s">
         <v>312</v>
@@ -7169,10 +7169,10 @@
         <v>10693939</v>
       </c>
       <c r="W7">
-        <v>181</v>
+        <v>181.1</v>
       </c>
       <c r="X7">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="Y7" t="s">
         <v>405</v>
@@ -7201,7 +7201,7 @@
         <v>43482</v>
       </c>
       <c r="H8">
-        <v>45815</v>
+        <v>45816</v>
       </c>
       <c r="I8">
         <v>44156</v>
@@ -7222,7 +7222,7 @@
         <v>44654</v>
       </c>
       <c r="O8">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="P8">
         <v>498</v>
@@ -7249,7 +7249,7 @@
         <v>28.5</v>
       </c>
       <c r="X8">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="Y8" t="s">
         <v>406</v>
@@ -7278,7 +7278,7 @@
         <v>12316</v>
       </c>
       <c r="H9">
-        <v>13432</v>
+        <v>13284</v>
       </c>
       <c r="I9">
         <v>12642.8</v>
@@ -7299,16 +7299,16 @@
         <v>12759.5</v>
       </c>
       <c r="O9">
-        <v>789.2</v>
+        <v>641.2</v>
       </c>
       <c r="P9">
         <v>116.7</v>
       </c>
       <c r="Q9">
-        <v>6.2</v>
+        <v>5.1</v>
       </c>
       <c r="R9">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="S9" t="s">
         <v>314</v>
@@ -7323,7 +7323,7 @@
         <v>1328976</v>
       </c>
       <c r="W9">
-        <v>59.4</v>
+        <v>48.2</v>
       </c>
       <c r="X9">
         <v>8.800000000000001</v>
@@ -7358,7 +7358,7 @@
         <v>46589</v>
       </c>
       <c r="I10">
-        <v>44365.80000000001</v>
+        <v>44365.8</v>
       </c>
       <c r="J10">
         <v>382.4</v>
@@ -7373,7 +7373,7 @@
         <v>44030.60000000001</v>
       </c>
       <c r="N10">
-        <v>44701.00000000001</v>
+        <v>44701</v>
       </c>
       <c r="O10">
         <v>2223.2</v>
@@ -7432,7 +7432,7 @@
         <v>487721</v>
       </c>
       <c r="H11">
-        <v>564436</v>
+        <v>564495</v>
       </c>
       <c r="I11">
         <v>492698.8</v>
@@ -7447,13 +7447,13 @@
         <v>3480.3</v>
       </c>
       <c r="M11">
-        <v>489218.5000000001</v>
+        <v>489218.5</v>
       </c>
       <c r="N11">
         <v>496179.1</v>
       </c>
       <c r="O11">
-        <v>71737.2</v>
+        <v>71796.2</v>
       </c>
       <c r="P11">
         <v>3480.3</v>
@@ -7480,7 +7480,7 @@
         <v>106.6</v>
       </c>
       <c r="X11">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y11" t="s">
         <v>409</v>
@@ -7512,7 +7512,7 @@
         <v>108019</v>
       </c>
       <c r="I12">
-        <v>99508.79999999997</v>
+        <v>99508.8</v>
       </c>
       <c r="J12">
         <v>1188.1</v>
@@ -7524,7 +7524,7 @@
         <v>1041.4</v>
       </c>
       <c r="M12">
-        <v>98467.39999999998</v>
+        <v>98467.40000000001</v>
       </c>
       <c r="N12">
         <v>100550.2</v>
@@ -7586,7 +7586,7 @@
         <v>101382</v>
       </c>
       <c r="H13">
-        <v>119079</v>
+        <v>119162</v>
       </c>
       <c r="I13">
         <v>105605.2</v>
@@ -7607,7 +7607,7 @@
         <v>107149.7</v>
       </c>
       <c r="O13">
-        <v>13473.8</v>
+        <v>13556.8</v>
       </c>
       <c r="P13">
         <v>1544.5</v>
@@ -7616,7 +7616,7 @@
         <v>12.8</v>
       </c>
       <c r="R13">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="S13" t="s">
         <v>318</v>
@@ -7631,7 +7631,7 @@
         <v>9769526</v>
       </c>
       <c r="W13">
-        <v>137.9</v>
+        <v>138.8</v>
       </c>
       <c r="X13">
         <v>15.8</v>
@@ -7681,7 +7681,7 @@
         <v>1837.1</v>
       </c>
       <c r="N14">
-        <v>1918.900000000001</v>
+        <v>1918.9</v>
       </c>
       <c r="O14">
         <v>16</v>
@@ -7740,10 +7740,10 @@
         <v>507862</v>
       </c>
       <c r="H15">
-        <v>633192</v>
+        <v>633222</v>
       </c>
       <c r="I15">
-        <v>523663.9999999999</v>
+        <v>523664</v>
       </c>
       <c r="J15">
         <v>9372.1</v>
@@ -7755,13 +7755,13 @@
         <v>8215</v>
       </c>
       <c r="M15">
-        <v>515448.9999999999</v>
+        <v>515449</v>
       </c>
       <c r="N15">
-        <v>531878.9999999999</v>
+        <v>531879</v>
       </c>
       <c r="O15">
-        <v>109528</v>
+        <v>109558</v>
       </c>
       <c r="P15">
         <v>8215</v>
@@ -7770,7 +7770,7 @@
         <v>20.9</v>
       </c>
       <c r="R15">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S15" t="s">
         <v>320</v>
@@ -7785,7 +7785,7 @@
         <v>59641488</v>
       </c>
       <c r="W15">
-        <v>183.6</v>
+        <v>183.7</v>
       </c>
       <c r="X15">
         <v>13.8</v>
@@ -8125,7 +8125,7 @@
         <v>2815</v>
       </c>
       <c r="H20">
-        <v>3338</v>
+        <v>3339</v>
       </c>
       <c r="I20">
         <v>2826</v>
@@ -8146,13 +8146,13 @@
         <v>2891.4</v>
       </c>
       <c r="O20">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="P20">
         <v>65.40000000000001</v>
       </c>
       <c r="Q20">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="R20">
         <v>2.7</v>
@@ -8170,7 +8170,7 @@
         <v>514564</v>
       </c>
       <c r="W20">
-        <v>99.5</v>
+        <v>99.7</v>
       </c>
       <c r="X20">
         <v>12.7</v>
@@ -8202,10 +8202,10 @@
         <v>5223</v>
       </c>
       <c r="H21">
-        <v>6107</v>
+        <v>6349</v>
       </c>
       <c r="I21">
-        <v>5294.800000000001</v>
+        <v>5294.8</v>
       </c>
       <c r="J21">
         <v>71</v>
@@ -8217,22 +8217,22 @@
         <v>62.2</v>
       </c>
       <c r="M21">
-        <v>5232.600000000001</v>
+        <v>5232.6</v>
       </c>
       <c r="N21">
-        <v>5357.000000000001</v>
+        <v>5357</v>
       </c>
       <c r="O21">
-        <v>812.2</v>
+        <v>1054.2</v>
       </c>
       <c r="P21">
         <v>62.2</v>
       </c>
       <c r="Q21">
-        <v>15.3</v>
+        <v>19.9</v>
       </c>
       <c r="R21">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="S21" t="s">
         <v>326</v>
@@ -8247,7 +8247,7 @@
         <v>621873</v>
       </c>
       <c r="W21">
-        <v>130.6</v>
+        <v>169.5</v>
       </c>
       <c r="X21">
         <v>10</v>
@@ -8350,37 +8350,37 @@
         <v>32443</v>
       </c>
       <c r="F23">
-        <v>32569</v>
+        <v>32572</v>
       </c>
       <c r="G23">
-        <v>32866</v>
+        <v>32869</v>
       </c>
       <c r="H23">
-        <v>33536</v>
+        <v>33549</v>
       </c>
       <c r="I23">
-        <v>33431</v>
+        <v>33432.2</v>
       </c>
       <c r="J23">
-        <v>281.7</v>
+        <v>281.5</v>
       </c>
       <c r="K23">
         <v>1.96</v>
       </c>
       <c r="L23">
-        <v>246.9</v>
+        <v>246.7</v>
       </c>
       <c r="M23">
-        <v>33184.1</v>
+        <v>33185.5</v>
       </c>
       <c r="N23">
-        <v>33677.9</v>
+        <v>33678.89999999999</v>
       </c>
       <c r="O23">
-        <v>105</v>
+        <v>116.8</v>
       </c>
       <c r="P23">
-        <v>246.9</v>
+        <v>246.7</v>
       </c>
       <c r="Q23">
         <v>0.3</v>
@@ -8401,7 +8401,7 @@
         <v>5367580</v>
       </c>
       <c r="W23">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="X23">
         <v>4.6</v>
@@ -8451,7 +8451,7 @@
         <v>324429.3</v>
       </c>
       <c r="N24">
-        <v>335549.4999999999</v>
+        <v>335549.5</v>
       </c>
       <c r="O24">
         <v>80363.60000000001</v>
@@ -8741,10 +8741,10 @@
         <v>42328</v>
       </c>
       <c r="H28">
-        <v>50161</v>
+        <v>50165</v>
       </c>
       <c r="I28">
-        <v>43723.00000000001</v>
+        <v>43723</v>
       </c>
       <c r="J28">
         <v>621.3</v>
@@ -8756,13 +8756,13 @@
         <v>544.6</v>
       </c>
       <c r="M28">
-        <v>43178.40000000002</v>
+        <v>43178.4</v>
       </c>
       <c r="N28">
-        <v>44267.60000000001</v>
+        <v>44267.6</v>
       </c>
       <c r="O28">
-        <v>6438</v>
+        <v>6442</v>
       </c>
       <c r="P28">
         <v>544.6</v>
@@ -8789,7 +8789,7 @@
         <v>118</v>
       </c>
       <c r="X28">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="Y28" t="s">
         <v>426</v>
@@ -8818,7 +8818,7 @@
         <v>16185</v>
       </c>
       <c r="H29">
-        <v>20372</v>
+        <v>20374</v>
       </c>
       <c r="I29">
         <v>16394.8</v>
@@ -8839,7 +8839,7 @@
         <v>16643.6</v>
       </c>
       <c r="O29">
-        <v>3977.2</v>
+        <v>3979.2</v>
       </c>
       <c r="P29">
         <v>248.8</v>
@@ -8863,7 +8863,7 @@
         <v>2095861</v>
       </c>
       <c r="W29">
-        <v>189.8</v>
+        <v>189.9</v>
       </c>
       <c r="X29">
         <v>11.8</v>
@@ -8895,10 +8895,10 @@
         <v>327996</v>
       </c>
       <c r="H30">
-        <v>415179</v>
+        <v>415182</v>
       </c>
       <c r="I30">
-        <v>336931.9999999999</v>
+        <v>336932</v>
       </c>
       <c r="J30">
         <v>1889.7</v>
@@ -8910,13 +8910,13 @@
         <v>1656.4</v>
       </c>
       <c r="M30">
-        <v>335275.5999999999</v>
+        <v>335275.6</v>
       </c>
       <c r="N30">
-        <v>338588.3999999999</v>
+        <v>338588.4</v>
       </c>
       <c r="O30">
-        <v>78247</v>
+        <v>78250</v>
       </c>
       <c r="P30">
         <v>1656.4</v>
@@ -8972,10 +8972,10 @@
         <v>69456</v>
       </c>
       <c r="H31">
-        <v>80720</v>
+        <v>80721</v>
       </c>
       <c r="I31">
-        <v>73035.80000000002</v>
+        <v>73035.8</v>
       </c>
       <c r="J31">
         <v>1371.5</v>
@@ -8987,13 +8987,13 @@
         <v>1202.2</v>
       </c>
       <c r="M31">
-        <v>71833.60000000002</v>
+        <v>71833.60000000001</v>
       </c>
       <c r="N31">
-        <v>74238.00000000001</v>
+        <v>74238</v>
       </c>
       <c r="O31">
-        <v>7684.2</v>
+        <v>7685.2</v>
       </c>
       <c r="P31">
         <v>1202.2</v>
@@ -9020,7 +9020,7 @@
         <v>74.40000000000001</v>
       </c>
       <c r="X31">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="Y31" t="s">
         <v>429</v>
@@ -9052,7 +9052,7 @@
         <v>64759</v>
       </c>
       <c r="I32">
-        <v>54562.79999999999</v>
+        <v>54562.8</v>
       </c>
       <c r="J32">
         <v>799.2</v>
@@ -9064,10 +9064,10 @@
         <v>700.5</v>
       </c>
       <c r="M32">
-        <v>53862.29999999999</v>
+        <v>53862.3</v>
       </c>
       <c r="N32">
-        <v>55263.29999999999</v>
+        <v>55263.3</v>
       </c>
       <c r="O32">
         <v>10196.2</v>
